--- a/stockcau/static/nuevo_inventario.xlsx
+++ b/stockcau/static/nuevo_inventario.xlsx
@@ -497,12 +497,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Ex migraciones </t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -542,8 +537,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parte de atrás estallada
-</t>
+          <t>Parte de atrás estallada</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -583,12 +577,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -626,12 +615,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -671,8 +655,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Minima rajadura parte inferior
-F/S consultar</t>
+          <t>Minima rajadura parte inferior</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -714,8 +697,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bloqueado
-</t>
+          <t>Bloqueado</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -755,12 +737,7 @@
           <t>Operaciones</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Vicente Carbone</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -800,8 +777,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estallado
-Ex BONIFAY Agustina </t>
+          <t>Estallado</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -843,8 +819,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pantalla rajada
-</t>
+          <t>Pantalla rajada</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -884,12 +859,7 @@
           <t>Parking</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -927,12 +897,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -970,12 +935,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -1013,12 +973,7 @@
           <t>Operaciones</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -1058,8 +1013,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pantalla rota
-</t>
+          <t>Pantalla rota</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1099,12 +1053,7 @@
           <t>Pañol Mobile</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -1142,12 +1091,7 @@
           <t>Pañol Mobile</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -1185,12 +1129,7 @@
           <t>Pañol Mobile</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -1228,12 +1167,7 @@
           <t>Pañol Mobile</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -1271,12 +1205,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Ex PAÑOL</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -1316,8 +1245,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ingreso nuevo
-Niro Anahi Soledad</t>
+          <t>Ingreso nuevo</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1359,8 +1287,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ingreso nuevo
-Marrafino Maria Elisa</t>
+          <t>Ingreso nuevo</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1402,8 +1329,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Ingreso nuevo
-Gimenez Ruben Martin</t>
+          <t>Ingreso nuevo</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1443,12 +1369,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -1486,12 +1407,7 @@
           <t>San Fernando (SFO)</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Uncal, Juan</t>
-        </is>
-      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -1529,12 +1445,7 @@
           <t>San Fernando (SFO)</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Salinas, Fernando</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -1572,12 +1483,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -1615,12 +1521,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -1658,12 +1559,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -1701,12 +1597,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -1744,12 +1635,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -1787,12 +1673,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -1830,12 +1711,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -1873,12 +1749,7 @@
           <t>San Fernando (SFO)</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Skodnik, Jorge</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -1916,12 +1787,7 @@
           <t>San Fernando (SFO)</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Jefe de Base SFO</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -1959,12 +1825,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2002,12 +1863,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2045,12 +1901,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2088,12 +1939,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2131,12 +1977,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2174,12 +2015,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2217,12 +2053,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2260,12 +2091,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2303,12 +2129,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2346,12 +2167,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2389,12 +2205,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2432,12 +2243,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2475,12 +2281,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2518,12 +2319,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2561,12 +2357,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2604,12 +2395,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2647,12 +2433,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2690,12 +2471,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2733,12 +2509,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2776,12 +2547,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -2821,8 +2587,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azpiri, felipe
-</t>
+          <t>Azpiri, felipe</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2864,8 +2629,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lopez rouger, jose
-Lopez Rouger, Jose</t>
+          <t>Lopez rouger, jose</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2907,8 +2671,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ex lopez rouger
-Ex Lopez Rouger</t>
+          <t>Ex lopez rouger</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2950,8 +2713,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve">32gb
-</t>
+          <t>32gb</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2993,8 +2755,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve">256gb
-</t>
+          <t>256gb</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3036,8 +2797,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve">256gb
-</t>
+          <t>256gb</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3079,8 +2839,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve">500gb
-</t>
+          <t>500gb</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3122,8 +2881,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve">1tb
-</t>
+          <t>1tb</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3165,8 +2923,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve">1tb
-</t>
+          <t>1tb</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3208,8 +2965,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve">32gb
-</t>
+          <t>32gb</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3251,8 +3007,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve">32gb
-</t>
+          <t>32gb</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3294,8 +3049,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t xml:space="preserve">32gb
-</t>
+          <t>32gb</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3337,8 +3091,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve">120gb
-</t>
+          <t>120gb</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3380,8 +3133,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve">120gb
-</t>
+          <t>120gb</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3423,8 +3175,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>120gb
-Ex Customer</t>
+          <t>120gb</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3466,8 +3217,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t xml:space="preserve">120gb
-</t>
+          <t>120gb</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3509,8 +3259,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>500gb
-Disco Mariana</t>
+          <t>500gb</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3552,8 +3301,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve">8gb
-</t>
+          <t>8gb</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3595,8 +3343,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
-</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3638,8 +3385,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
-</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3681,8 +3427,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve">17
-</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3724,8 +3469,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
-</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3767,8 +3511,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
-</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3810,8 +3553,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
-</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3853,8 +3595,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t xml:space="preserve">23
-</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3896,8 +3637,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
-</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3939,8 +3679,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
-</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3982,8 +3721,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
-</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4025,8 +3763,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
-</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4068,8 +3805,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
-</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4111,8 +3847,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
-</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4154,8 +3889,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
-</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4197,8 +3931,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>24
-EX ARIEL GUEVARA</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -5490,7 +5223,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>NUEVO</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6004,8 +5737,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carbone, vicente
-</t>
+          <t>Carbone, vicente</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6047,8 +5779,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pentimalli nahuel
-</t>
+          <t>Pentimalli nahuel</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6090,8 +5821,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sala vip
-</t>
+          <t>Sala vip</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6133,8 +5863,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Mantenimiento
-Ex Dominé</t>
+          <t>Mantenimiento</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6176,8 +5905,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Mantenimiento
-TAG: 5RFD9R3</t>
+          <t>Mantenimiento</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6219,8 +5947,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pañol
-</t>
+          <t>Pañol</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6262,8 +5989,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Se envio a san fernando 
-TAG: JMWBLM3</t>
+          <t xml:space="preserve">Se envio a san fernando </t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6303,12 +6029,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -6346,12 +6067,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -6389,12 +6105,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Bonifay Agustina</t>
-        </is>
-      </c>
+      <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -6434,8 +6145,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Bat agotada
-Anibal Rodriguez</t>
+          <t>Bat agotada</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -6475,12 +6185,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -6518,12 +6223,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -6561,12 +6261,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -6606,8 +6301,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sin bateria 
-</t>
+          <t xml:space="preserve">Sin bateria </t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6649,8 +6343,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sin bateria falla teclado
-</t>
+          <t>Sin bateria falla teclado</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -6692,8 +6385,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tecllado roto
-</t>
+          <t>Tecllado roto</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6735,8 +6427,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Falla mother
-</t>
+          <t>Falla mother</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6778,8 +6469,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Falla touchpad - bat agotada
-</t>
+          <t>Falla touchpad - bat agotada</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6819,12 +6509,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -6862,12 +6547,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -6905,12 +6585,7 @@
           <t>Operaciones</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Ingreso</t>
-        </is>
-      </c>
+      <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -6948,12 +6623,7 @@
           <t>6°to Piso</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Ingreso</t>
-        </is>
-      </c>
+      <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -6991,12 +6661,7 @@
           <t>Mantenimiento</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Ingreso</t>
-        </is>
-      </c>
+      <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -7036,8 +6701,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Teclado roto
-</t>
+          <t>Teclado roto</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7079,8 +6743,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ex condinanzo
-</t>
+          <t>Ex condinanzo</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7122,8 +6785,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ex aldo martino
-</t>
+          <t>Ex aldo martino</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -8169,8 +7831,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Puerto de red y problema de lentitud 
-EX Agustin Costa    </t>
+          <t xml:space="preserve">Puerto de red y problema de lentitud </t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -8212,8 +7873,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t xml:space="preserve">No carga bateria tiene arrchivos de otro usuario 
-</t>
+          <t xml:space="preserve">No carga bateria tiene arrchivos de otro usuario </t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -8255,8 +7915,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sin pantalla y falla chipset
-</t>
+          <t>Sin pantalla y falla chipset</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -8296,12 +7955,7 @@
           <t>6°to Piso</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -8339,12 +7993,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -8382,12 +8031,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -8427,8 +8071,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sin bateria 
-</t>
+          <t xml:space="preserve">Sin bateria </t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -8468,12 +8111,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -8513,8 +8151,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Teclado roto, sin bateria y bisel roto 
-</t>
+          <t xml:space="preserve">Teclado roto, sin bateria y bisel roto </t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -8556,8 +8193,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bateria dañado, falla de touchpad 
-</t>
+          <t xml:space="preserve">Bateria dañado, falla de touchpad </t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -8599,8 +8235,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Teclado dañado sin bateria
-</t>
+          <t>Teclado dañado sin bateria</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -8640,12 +8275,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Falta Transformador</t>
-        </is>
-      </c>
+      <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -8683,12 +8313,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -8726,12 +8351,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Ex cinta 8 pista</t>
-        </is>
-      </c>
+      <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -8769,12 +8389,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-i5</t>
-        </is>
-      </c>
+      <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -8814,8 +8429,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Se fue a checkin 34
-i3</t>
+          <t>Se fue a checkin 34</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -8855,12 +8469,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-i3</t>
-        </is>
-      </c>
+      <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -8898,12 +8507,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-i3</t>
-        </is>
-      </c>
+      <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -8941,12 +8545,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -8984,12 +8583,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -9027,12 +8621,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -9070,12 +8659,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -9113,12 +8697,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Cintas internacionales</t>
-        </is>
-      </c>
+      <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -9156,12 +8735,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Ex gate 8</t>
-        </is>
-      </c>
+      <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -9201,8 +8775,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Instalada en vialidad junto a open25
-</t>
+          <t>Instalada en vialidad junto a open25</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -9242,12 +8815,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -9285,12 +8853,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Ex gate 7</t>
-        </is>
-      </c>
+      <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -9330,8 +8893,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>No da imagen
-Ex check-34</t>
+          <t>No da imagen</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -14235,7 +13797,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>NUEVO</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -15601,7 +15163,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -15643,7 +15205,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -15685,7 +15247,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -15727,7 +15289,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -15769,7 +15331,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -15811,7 +15373,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -15853,7 +15415,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -15895,7 +15457,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -15937,7 +15499,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -15979,7 +15541,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -16021,7 +15583,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -16063,7 +15625,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -16105,7 +15667,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -16147,7 +15709,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -16189,7 +15751,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -16231,7 +15793,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -16273,7 +15835,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -16315,7 +15877,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -16357,7 +15919,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -16399,7 +15961,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -16441,7 +16003,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -16483,7 +16045,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -16525,7 +16087,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -16567,7 +16129,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -16609,7 +16171,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -16651,7 +16213,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -16693,7 +16255,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -16735,7 +16297,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -16777,7 +16339,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -16819,7 +16381,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -16861,7 +16423,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -16903,7 +16465,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -16945,7 +16507,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -16987,7 +16549,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -17029,7 +16591,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -17071,7 +16633,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -17113,7 +16675,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -17155,7 +16717,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -17197,7 +16759,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -17239,7 +16801,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -17281,7 +16843,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -17323,7 +16885,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -17365,7 +16927,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -17407,7 +16969,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -17449,7 +17011,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -17491,7 +17053,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -17533,7 +17095,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -17575,7 +17137,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -17617,7 +17179,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -17659,7 +17221,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -17701,7 +17263,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -17743,7 +17305,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -17785,7 +17347,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -17827,7 +17389,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -17869,7 +17431,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -17911,7 +17473,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -17953,7 +17515,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -17995,7 +17557,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -18037,7 +17599,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -18079,7 +17641,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -18121,7 +17683,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -18163,7 +17725,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -18205,7 +17767,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -18247,7 +17809,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -18285,7 +17847,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -18319,7 +17881,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -18357,7 +17919,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -18395,7 +17957,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -18433,7 +17995,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -18475,7 +18037,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -18517,7 +18079,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -18559,7 +18121,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -18601,7 +18163,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -18643,7 +18205,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -18685,7 +18247,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -18727,7 +18289,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -18769,7 +18331,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -18811,7 +18373,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -18853,7 +18415,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -18895,7 +18457,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -18933,7 +18495,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -18975,7 +18537,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -19017,7 +18579,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Pantallas</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -19087,12 +18649,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G442" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Aviplan</t>
-        </is>
-      </c>
+      <c r="G442" t="inlineStr"/>
       <c r="H442" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19130,12 +18687,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G443" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G443" t="inlineStr"/>
       <c r="H443" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19173,12 +18725,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G444" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G444" t="inlineStr"/>
       <c r="H444" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19216,12 +18763,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G445" t="inlineStr"/>
       <c r="H445" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19259,12 +18801,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G446" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G446" t="inlineStr"/>
       <c r="H446" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19302,12 +18839,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G447" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G447" t="inlineStr"/>
       <c r="H447" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19345,12 +18877,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G448" t="inlineStr"/>
       <c r="H448" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19388,12 +18915,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G449" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G449" t="inlineStr"/>
       <c r="H449" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19431,12 +18953,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G450" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G450" t="inlineStr"/>
       <c r="H450" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19474,12 +18991,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G451" t="inlineStr"/>
       <c r="H451" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19517,12 +19029,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G452" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G452" t="inlineStr"/>
       <c r="H452" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19560,12 +19067,7 @@
           <t>Sala Vip</t>
         </is>
       </c>
-      <c r="G453" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Sala Vip</t>
-        </is>
-      </c>
+      <c r="G453" t="inlineStr"/>
       <c r="H453" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19603,12 +19105,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G454" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G454" t="inlineStr"/>
       <c r="H454" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19646,12 +19143,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G455" t="inlineStr"/>
       <c r="H455" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19689,12 +19181,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G456" t="inlineStr"/>
       <c r="H456" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19732,12 +19219,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19775,12 +19257,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G458" t="inlineStr"/>
       <c r="H458" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19818,12 +19295,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G459" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G459" t="inlineStr"/>
       <c r="H459" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19861,12 +19333,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G460" t="inlineStr"/>
       <c r="H460" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19904,12 +19371,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G461" t="inlineStr"/>
       <c r="H461" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19947,12 +19409,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -19990,12 +19447,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G463" t="inlineStr"/>
       <c r="H463" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -20033,12 +19485,7 @@
           <t>COC</t>
         </is>
       </c>
-      <c r="G464" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -20074,8 +19521,7 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bariloche con placa de video
-</t>
+          <t>Bariloche con placa de video</t>
         </is>
       </c>
       <c r="H465" t="inlineStr">
@@ -20115,12 +19561,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G466" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Ex COC</t>
-        </is>
-      </c>
+      <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -20160,8 +19601,7 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ex credenciales
-</t>
+          <t>Ex credenciales</t>
         </is>
       </c>
       <c r="H467" t="inlineStr">
@@ -20203,8 +19643,7 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>Ex control terminal
-Windows 7 y 4gb de RAM</t>
+          <t>Ex control terminal</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
@@ -23013,7 +22452,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sexto piso </t>
+          <t>6°to piso</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
@@ -23433,7 +22872,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>Sexto piso</t>
+          <t>6°to piso</t>
         </is>
       </c>
       <c r="G545" t="inlineStr">
@@ -23520,12 +22959,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-En caja</t>
-        </is>
-      </c>
+      <c r="G547" t="inlineStr"/>
       <c r="H547" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -23563,12 +22997,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-En caja</t>
-        </is>
-      </c>
+      <c r="G548" t="inlineStr"/>
       <c r="H548" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -23606,12 +23035,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Sin USB</t>
-        </is>
-      </c>
+      <c r="G549" t="inlineStr"/>
       <c r="H549" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -23649,12 +23073,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Sin usb</t>
-        </is>
-      </c>
+      <c r="G550" t="inlineStr"/>
       <c r="H550" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -23692,12 +23111,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Sin USB</t>
-        </is>
-      </c>
+      <c r="G551" t="inlineStr"/>
       <c r="H551" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -23735,12 +23149,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Sin usb</t>
-        </is>
-      </c>
+      <c r="G552" t="inlineStr"/>
       <c r="H552" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -23778,12 +23187,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Sin USB</t>
-        </is>
-      </c>
+      <c r="G553" t="inlineStr"/>
       <c r="H553" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -23821,12 +23225,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G554" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Sin USB</t>
-        </is>
-      </c>
+      <c r="G554" t="inlineStr"/>
       <c r="H554" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -23864,12 +23263,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G555" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-En caja</t>
-        </is>
-      </c>
+      <c r="G555" t="inlineStr"/>
       <c r="H555" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -23907,12 +23301,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G556" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-En caja</t>
-        </is>
-      </c>
+      <c r="G556" t="inlineStr"/>
       <c r="H556" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -23950,12 +23339,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G557" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-En caja</t>
-        </is>
-      </c>
+      <c r="G557" t="inlineStr"/>
       <c r="H557" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -23993,12 +23377,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G558" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-En caja</t>
-        </is>
-      </c>
+      <c r="G558" t="inlineStr"/>
       <c r="H558" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -24036,12 +23415,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G559" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-En caja</t>
-        </is>
-      </c>
+      <c r="G559" t="inlineStr"/>
       <c r="H559" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -24079,12 +23453,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G560" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-En caja</t>
-        </is>
-      </c>
+      <c r="G560" t="inlineStr"/>
       <c r="H560" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -24122,12 +23491,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G561" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-En caja</t>
-        </is>
-      </c>
+      <c r="G561" t="inlineStr"/>
       <c r="H561" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -24165,12 +23529,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G562" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-En caja</t>
-        </is>
-      </c>
+      <c r="G562" t="inlineStr"/>
       <c r="H562" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -24208,12 +23567,7 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-En caja</t>
-        </is>
-      </c>
+      <c r="G563" t="inlineStr"/>
       <c r="H563" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -24251,12 +23605,7 @@
           <t>Control terminal</t>
         </is>
       </c>
-      <c r="G564" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
+      <c r="G564" t="inlineStr"/>
       <c r="H564" t="inlineStr">
         <is>
           <t>CAU</t>
@@ -24296,8 +23645,7 @@
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>Flecha hacia arriba rota
-Ex Lopez</t>
+          <t>Flecha hacia arriba rota</t>
         </is>
       </c>
       <c r="H565" t="inlineStr">
@@ -24339,8 +23687,7 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sala vip
-</t>
+          <t>Sala vip</t>
         </is>
       </c>
       <c r="H566" t="inlineStr">
@@ -24382,8 +23729,7 @@
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mantenimiento
-</t>
+          <t>Mantenimiento</t>
         </is>
       </c>
       <c r="H567" t="inlineStr">
@@ -24425,8 +23771,7 @@
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>Parking sur
-Gabriela Jara</t>
+          <t>Parking sur</t>
         </is>
       </c>
       <c r="H568" t="inlineStr">
@@ -24468,8 +23813,7 @@
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reyna ricardo
-</t>
+          <t>Reyna ricardo</t>
         </is>
       </c>
       <c r="H569" t="inlineStr">
@@ -24511,8 +23855,7 @@
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>Se envio a san fernando 
-TAG: JMWBLM3</t>
+          <t xml:space="preserve">Se envio a san fernando </t>
         </is>
       </c>
       <c r="H570" t="inlineStr">
@@ -24630,7 +23973,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" s="1" t="n">
-        <v>45208.15255050604</v>
+        <v>45216.18122704742</v>
       </c>
     </row>
     <row r="3">
@@ -24672,7 +24015,7 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" s="1" t="n">
-        <v>45208.15255066855</v>
+        <v>45216.18122711706</v>
       </c>
     </row>
     <row r="4">
@@ -24718,7 +24061,7 @@
         </is>
       </c>
       <c r="J4" s="1" t="n">
-        <v>45208.15255077244</v>
+        <v>45216.18122718651</v>
       </c>
     </row>
     <row r="5">
@@ -24764,7 +24107,7 @@
         </is>
       </c>
       <c r="J5" s="1" t="n">
-        <v>45208.15255085325</v>
+        <v>45216.18122726755</v>
       </c>
     </row>
     <row r="6">
@@ -24806,7 +24149,7 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" s="1" t="n">
-        <v>45208.15255098022</v>
+        <v>45216.18122734858</v>
       </c>
     </row>
     <row r="7">
@@ -24852,7 +24195,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" s="1" t="n">
-        <v>45208.15255109566</v>
+        <v>45216.18122742962</v>
       </c>
     </row>
     <row r="8">
@@ -24898,7 +24241,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" s="1" t="n">
-        <v>45208.15255120012</v>
+        <v>45216.18122751067</v>
       </c>
     </row>
     <row r="9">
@@ -24944,7 +24287,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" s="1" t="n">
-        <v>45208.15255130344</v>
+        <v>45216.18122758011</v>
       </c>
     </row>
     <row r="10">
@@ -24990,7 +24333,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" s="1" t="n">
-        <v>45208.15255140734</v>
+        <v>45216.18122766116</v>
       </c>
     </row>
     <row r="11">
@@ -25032,7 +24375,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" s="1" t="n">
-        <v>45208.1525515112</v>
+        <v>45216.1812277422</v>
       </c>
     </row>
     <row r="12">
@@ -25078,7 +24421,7 @@
         </is>
       </c>
       <c r="J12" s="1" t="n">
-        <v>45208.15255163818</v>
+        <v>45216.18122782323</v>
       </c>
     </row>
     <row r="13">
@@ -25124,7 +24467,7 @@
         </is>
       </c>
       <c r="J13" s="1" t="n">
-        <v>45208.15255174621</v>
+        <v>45216.18122790428</v>
       </c>
     </row>
     <row r="14">
@@ -25170,7 +24513,7 @@
         </is>
       </c>
       <c r="J14" s="1" t="n">
-        <v>45208.152551837</v>
+        <v>45216.18122798531</v>
       </c>
     </row>
     <row r="15">
@@ -25212,7 +24555,7 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" s="1" t="n">
-        <v>45208.15255193831</v>
+        <v>45216.18122805477</v>
       </c>
     </row>
     <row r="16">
@@ -25254,7 +24597,7 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" s="1" t="n">
-        <v>45208.15255206528</v>
+        <v>45216.18122814738</v>
       </c>
     </row>
     <row r="17">
@@ -25296,7 +24639,7 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" s="1" t="n">
-        <v>45208.1525521692</v>
+        <v>45216.18122822842</v>
       </c>
     </row>
     <row r="18">
@@ -25346,7 +24689,7 @@
         </is>
       </c>
       <c r="J18" s="1" t="n">
-        <v>45208.15255226152</v>
+        <v>45216.18122829787</v>
       </c>
     </row>
     <row r="19">
@@ -25396,7 +24739,7 @@
         </is>
       </c>
       <c r="J19" s="1" t="n">
-        <v>45208.15255240006</v>
+        <v>45216.18122836734</v>
       </c>
     </row>
     <row r="20">
@@ -25446,7 +24789,7 @@
         </is>
       </c>
       <c r="J20" s="1" t="n">
-        <v>45208.15255248088</v>
+        <v>45216.18122844837</v>
       </c>
     </row>
     <row r="21">
@@ -25496,7 +24839,7 @@
         </is>
       </c>
       <c r="J21" s="1" t="n">
-        <v>45208.15255259626</v>
+        <v>45216.18122851784</v>
       </c>
     </row>
     <row r="22">
@@ -25546,7 +24889,7 @@
         </is>
       </c>
       <c r="J22" s="1" t="n">
-        <v>45208.15255267706</v>
+        <v>45216.1812285873</v>
       </c>
     </row>
     <row r="23">
@@ -25596,7 +24939,7 @@
         </is>
       </c>
       <c r="J23" s="1" t="n">
-        <v>45208.15255278095</v>
+        <v>45216.18122865675</v>
       </c>
     </row>
     <row r="24">
@@ -25646,7 +24989,7 @@
         </is>
       </c>
       <c r="J24" s="1" t="n">
-        <v>45208.15255286215</v>
+        <v>45216.18122872624</v>
       </c>
     </row>
     <row r="25">
@@ -25692,7 +25035,7 @@
         </is>
       </c>
       <c r="J25" s="1" t="n">
-        <v>45208.15255298877</v>
+        <v>45216.18122878411</v>
       </c>
     </row>
     <row r="26">
@@ -25734,7 +25077,7 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" s="1" t="n">
-        <v>45208.15255308384</v>
+        <v>45216.1812288473</v>
       </c>
     </row>
     <row r="27">
@@ -25776,7 +25119,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" s="1" t="n">
-        <v>45208.1525531619</v>
+        <v>45216.18122891147</v>
       </c>
     </row>
     <row r="28">
@@ -25826,7 +25169,7 @@
         </is>
       </c>
       <c r="J28" s="1" t="n">
-        <v>45208.15255324497</v>
+        <v>45216.18122896936</v>
       </c>
     </row>
     <row r="29">
@@ -25868,7 +25211,7 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" s="1" t="n">
-        <v>45208.15255333504</v>
+        <v>45216.18122902724</v>
       </c>
     </row>
     <row r="30">
@@ -25910,7 +25253,7 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" s="1" t="n">
-        <v>45208.1525534274</v>
+        <v>45216.18122908872</v>
       </c>
     </row>
     <row r="31">
@@ -25952,7 +25295,7 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" s="1" t="n">
-        <v>45208.15255351974</v>
+        <v>45216.18122914664</v>
       </c>
     </row>
     <row r="32">
@@ -25994,7 +25337,7 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" s="1" t="n">
-        <v>45208.15255360054</v>
+        <v>45216.1812292189</v>
       </c>
     </row>
     <row r="33">
@@ -26040,7 +25383,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" s="1" t="n">
-        <v>45208.15255369302</v>
+        <v>45216.18122927033</v>
       </c>
     </row>
     <row r="34">
@@ -26082,7 +25425,7 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" s="1" t="n">
-        <v>45208.15255378523</v>
+        <v>45216.18122933228</v>
       </c>
     </row>
     <row r="35">
@@ -26124,7 +25467,7 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" s="1" t="n">
-        <v>45208.15255387757</v>
+        <v>45216.18122940181</v>
       </c>
     </row>
   </sheetData>

--- a/stockcau/static/nuevo_inventario.xlsx
+++ b/stockcau/static/nuevo_inventario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stock" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Asignaciones" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Stock" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Asignaciones" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/stockcau/static/nuevo_inventario.xlsx
+++ b/stockcau/static/nuevo_inventario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stock" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Asignaciones" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Stock" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Asignaciones" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>11LBLM3</t>
+          <t>J2LBLM3</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -9643,10 +9643,14 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Se le saca mouse. Para Lukjanionok.</t>
-        </is>
-      </c>
-      <c r="H240" t="inlineStr"/>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Se quita mouse y se entrega a Nicolas Nahuel Basta</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -9666,29 +9670,25 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>83LBLM3</t>
+          <t>11LBLM3</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Vialidad</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Se le saco mouse. Para Sidoli.</t>
-        </is>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>Va para Vialidad. Espejo de dos pantallas.</t>
-        </is>
-      </c>
+          <t>Se le saca mouse. Para Lukjanionok.</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -9698,17 +9698,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Bangho</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Cubic a01b</t>
+          <t>Optiplex 3080</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>0800584301001066</t>
+          <t>83LBLM3</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -9721,8 +9721,16 @@
           <t>Vialidad</t>
         </is>
       </c>
-      <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr"/>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Se le saco mouse. Para Sidoli.</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Va para Vialidad. Espejo de dos pantallas.</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -9732,31 +9740,39 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Bangho</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Cubic a4150</t>
+          <t>Optiplex 3080</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>AR020000219062</t>
+          <t>B2LBLM3</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>CAU</t>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr"/>
+          <t>Deposito t4</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Se quita teclado y mouse y se entrega a Luis Machado.</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -9766,17 +9782,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Bangho</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Optiplex 3000</t>
+          <t>Cubic a01b</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>JRFD9R3</t>
+          <t>0800584301001066</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -9786,20 +9802,16 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>Vialidad</t>
         </is>
       </c>
       <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>Vialidad</t>
-        </is>
-      </c>
+      <c r="H244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nuc </t>
+          <t>Nuc</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -9814,7 +9826,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>801334001001023</t>
+          <t>AR020000219062</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -9833,27 +9845,27 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nuc </t>
+          <t>Nuc</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Bangho</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Cubic a4130</t>
+          <t>Optiplex 3000</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>801230601001011</t>
+          <t>JRFD9R3</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -9864,7 +9876,7 @@
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Ex gate 7</t>
+          <t>Vialidad</t>
         </is>
       </c>
     </row>
@@ -9881,17 +9893,17 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Cubic a01b</t>
+          <t>Cubic a4150</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>GEGK406001N1</t>
+          <t>801334001001023</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -9899,92 +9911,88 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>No da imagen</t>
-        </is>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>Ex check-34</t>
-        </is>
-      </c>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Pantalla</t>
+          <t xml:space="preserve">Nuc </t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Bangho</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Dm32e</t>
+          <t>Cubic a4130</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>04TEHCJJ300028</t>
+          <t>801230601001011</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Yenny</t>
-        </is>
-      </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ok </t>
-        </is>
-      </c>
-      <c r="H248" t="inlineStr"/>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Ex gate 7</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Pantalla</t>
+          <t xml:space="preserve">Nuc </t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Bangho</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Dm32e</t>
+          <t>Cubic a01b</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>04TEHCJJ300085</t>
+          <t>GEGK406001N1</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Yenny</t>
+          <t>CAU</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ok </t>
-        </is>
-      </c>
-      <c r="H249" t="inlineStr"/>
+          <t>No da imagen</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Ex check-34</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -10004,7 +10012,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>04TEHCJJ300004</t>
+          <t>04TEHCJJ300028</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10042,7 +10050,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>04TEHCJJ300093</t>
+          <t>04TEHCJJ300085</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10080,7 +10088,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>04TEHCJJ300045</t>
+          <t>04TEHCJJ300004</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -10118,7 +10126,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>04TEHCJJ300040</t>
+          <t>04TEHCJJ300093</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -10156,7 +10164,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>04TEHCJJ300042</t>
+          <t>04TEHCJJ300045</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -10194,7 +10202,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>04TEHCJJ300021</t>
+          <t>04TEHCJJ300040</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -10232,7 +10240,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>04TEHCJJ300051</t>
+          <t>04TEHCJJ300042</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -10270,7 +10278,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>04TEHCJJ300082</t>
+          <t>04TEHCJJ300021</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -10308,7 +10316,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>04TEHCJJ300065</t>
+          <t>04TEHCJJ300051</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -10346,7 +10354,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>04TEHCJJ300043</t>
+          <t>04TEHCJJ300082</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -10384,7 +10392,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>04TEHCJH500022</t>
+          <t>04TEHCJJ300065</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -10422,7 +10430,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>04TEHCJJ300092</t>
+          <t>04TEHCJJ300043</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -10460,7 +10468,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>04TEHCJJ300081</t>
+          <t>04TEHCJH500022</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -10498,7 +10506,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>04TEHCJJ300044</t>
+          <t>04TEHCJJ300092</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -10536,7 +10544,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>04TEHCJJ300153</t>
+          <t>04TEHCJJ300081</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -10574,7 +10582,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>04TEHCJJ300031</t>
+          <t>04TEHCJJ300044</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -10612,7 +10620,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>04TEHCJJ300041</t>
+          <t>04TEHCJJ300153</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -10650,7 +10658,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>04TEHCJJ300047</t>
+          <t>04TEHCJJ300031</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -10688,7 +10696,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>04TEHCJJ300075</t>
+          <t>04TEHCJJ300041</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -10726,7 +10734,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>04TEHCJJ300087</t>
+          <t>04TEHCJJ300047</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -10764,7 +10772,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>04TEHCJJ300037</t>
+          <t>04TEHCJJ300075</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -10802,7 +10810,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>04TEHCJJ300086</t>
+          <t>04TEHCJJ300087</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -10840,7 +10848,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>04TEHCJJ300035</t>
+          <t>04TEHCJJ300037</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -10878,7 +10886,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>04TEHCJJ300027</t>
+          <t>04TEHCJJ300086</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -10916,7 +10924,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>04TEHCJJ300003</t>
+          <t>04TEHCJJ300035</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -10954,7 +10962,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>04TEHCJJ300038</t>
+          <t>04TEHCJJ300027</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -10992,7 +11000,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>04TEHCJJ300002</t>
+          <t>04TEHCJJ300003</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -11030,7 +11038,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>04TEHCJJ300030</t>
+          <t>04TEHCJJ300038</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -11068,7 +11076,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>04TEHCJJ300061</t>
+          <t>04TEHCJJ300002</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -11106,7 +11114,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>04TEHCJJ300053</t>
+          <t>04TEHCJJ300030</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -11144,7 +11152,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>04TEHCJJ300100</t>
+          <t>04TEHCJJ300061</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -11182,7 +11190,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>04TEHCJJ300076</t>
+          <t>04TEHCJJ300053</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -11220,7 +11228,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>04TEHCJJ300062</t>
+          <t>04TEHCJJ300100</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -11258,7 +11266,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>04TEHCJJ300097</t>
+          <t>04TEHCJJ300076</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -11296,7 +11304,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>04TEHCJJ300033</t>
+          <t>04TEHCJJ300062</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -11334,7 +11342,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>04TEHCJJ300146</t>
+          <t>04TEHCJJ300097</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -11372,7 +11380,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>04TEHCJJ300055</t>
+          <t>04TEHCJJ300033</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -11410,7 +11418,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>04TEHCJJ300049</t>
+          <t>04TEHCJJ300146</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -11448,7 +11456,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>04TEHCJJ300098</t>
+          <t>04TEHCJJ300055</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -11486,7 +11494,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>04TEHCJJ300085</t>
+          <t>04TEHCJJ300049</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -11524,7 +11532,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>04TEHCJJ300004</t>
+          <t>04TEHCJJ300098</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -11562,7 +11570,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>04TEHCJJ300026</t>
+          <t>04TEHCJJ300085</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -11600,7 +11608,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>04TEHCJJ300010</t>
+          <t>04TEHCJJ300004</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -11638,7 +11646,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>04TEHCJJ300057</t>
+          <t>04TEHCJJ300026</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -11676,7 +11684,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>04TEHCJJ300005</t>
+          <t>04TEHCJJ300010</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -11714,7 +11722,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>04TEHCJJ300034</t>
+          <t>04TEHCJJ300057</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -11752,7 +11760,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>04TEHCJJ300096</t>
+          <t>04TEHCJJ300005</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -11790,7 +11798,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>04TEHCJJ300052</t>
+          <t>04TEHCJJ300034</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -11828,7 +11836,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>04TEHCJJ300011</t>
+          <t>04TEHCJJ300096</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -11866,7 +11874,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>04TEHCJJ300008</t>
+          <t>04TEHCJJ300052</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -11904,7 +11912,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>04TEHCJJ300006</t>
+          <t>04TEHCJJ300011</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -11942,7 +11950,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>04TEHCJJ300062</t>
+          <t>04TEHCJJ300008</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -11980,7 +11988,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>04TEHCJJ300032</t>
+          <t>04TEHCJJ300006</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -12018,22 +12026,22 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>04TEHCJJ300060</t>
+          <t>04TEHCJJ300062</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Parking</t>
+          <t>Yenny</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>32 pulgadas. Ubicada en parking.</t>
+          <t xml:space="preserve">Ok </t>
         </is>
       </c>
       <c r="H303" t="inlineStr"/>
@@ -12056,7 +12064,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>04TEHCJJ300083</t>
+          <t>04TEHCJJ300032</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -12094,22 +12102,22 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>04TECHJJ300206</t>
+          <t>04TEHCJJ300060</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Yenny</t>
+          <t>Parking</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ok </t>
+          <t>32 pulgadas. Ubicada en parking.</t>
         </is>
       </c>
       <c r="H305" t="inlineStr"/>
@@ -12132,7 +12140,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>04TECHJJ300058</t>
+          <t>04TEHCJJ300083</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -12170,7 +12178,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>04TECHJJ300208</t>
+          <t>04TECHJJ300206</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -12203,12 +12211,12 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Me32c</t>
+          <t>Dm32e</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Z6XNHCJF700208</t>
+          <t>04TECHJJ300058</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -12241,12 +12249,12 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Uh46f5</t>
+          <t>Dm32e</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>04AAHNJK500012</t>
+          <t>04TECHJJ300208</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -12279,12 +12287,12 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>43uh5f</t>
+          <t>Me32c</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>008KCFTN8659</t>
+          <t>Z6XNHCJF700208</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -12294,7 +12302,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Totem frente sala g</t>
+          <t>Yenny</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -12317,12 +12325,12 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>43uh5f</t>
+          <t>Uh46f5</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>710KCXMLR354</t>
+          <t>04AAHNJK500012</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -12360,7 +12368,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>008KCXMN8658</t>
+          <t>008KCFTN8659</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -12370,7 +12378,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Yenny</t>
+          <t>Totem frente sala g</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -12398,7 +12406,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>008KCLHN8672</t>
+          <t>710KCXMLR354</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -12436,7 +12444,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>008KCSFN8670</t>
+          <t>008KCXMN8658</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -12474,7 +12482,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>008KCHEN8665</t>
+          <t>008KCLHN8672</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -12502,17 +12510,17 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>43sm5kd</t>
+          <t>43uh5f</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>811KCNLLF487</t>
+          <t>008KCSFN8670</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -12527,7 +12535,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>Instalacion de fids en embarque nacio</t>
+          <t xml:space="preserve">Ok </t>
         </is>
       </c>
       <c r="H316" t="inlineStr"/>
@@ -12540,17 +12548,17 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>47lv35a</t>
+          <t>43uh5f</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>806KCASKE728</t>
+          <t>008KCHEN8665</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -12578,17 +12586,17 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Qm43n</t>
+          <t>43sm5kd</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>06UYHNDM300021</t>
+          <t>811KCNLLF487</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -12603,7 +12611,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>Instalacion fids embarque nacio</t>
+          <t>Instalacion de fids en embarque nacio</t>
         </is>
       </c>
       <c r="H318" t="inlineStr"/>
@@ -12616,17 +12624,17 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Qm43n</t>
+          <t>47lv35a</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>06UYHNDM300017</t>
+          <t>806KCASKE728</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -12641,7 +12649,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>Instalacion fids embarque nacio</t>
+          <t xml:space="preserve">Ok </t>
         </is>
       </c>
       <c r="H319" t="inlineStr"/>
@@ -12664,7 +12672,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>06UYHNDM300020</t>
+          <t>06UYHNDM300021</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -12702,7 +12710,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>06UYHNDM300006</t>
+          <t>06UYHNDM300017</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -12740,7 +12748,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>06UYHNDM300019</t>
+          <t>06UYHNDM300020</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -12778,7 +12786,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>06UYHNDM300001</t>
+          <t>06UYHNDM300006</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -12811,12 +12819,12 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Qm75r</t>
+          <t>Qm43n</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>0802HNJM500009</t>
+          <t>06UYHNDM300019</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -12849,12 +12857,12 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Qm85r-b</t>
+          <t>Qm43n</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>0HZ3HNLT300003</t>
+          <t>06UYHNDM300001</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -12869,7 +12877,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ok </t>
+          <t>Instalacion fids embarque nacio</t>
         </is>
       </c>
       <c r="H325" t="inlineStr"/>
@@ -12892,7 +12900,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>0802HNJM500010</t>
+          <t>0802HNJM500009</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -12920,17 +12928,17 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>49vl5d</t>
+          <t>Qm85r-b</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>908KCPYPZ528</t>
+          <t>0HZ3HNLT300003</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -12958,17 +12966,17 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>49vl5d</t>
+          <t>Qm75r</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>906KCCVM5403</t>
+          <t>0802HNJM500010</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -12983,7 +12991,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ok </t>
+          <t>Instalacion fids embarque nacio</t>
         </is>
       </c>
       <c r="H328" t="inlineStr"/>
@@ -13006,7 +13014,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>908KCVUNJ743</t>
+          <t>908KCPYPZ528</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -13044,7 +13052,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>908KCHENJ745</t>
+          <t>906KCCVM5403</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -13082,7 +13090,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>908KCXMPZ546</t>
+          <t>908KCVUNJ743</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -13120,7 +13128,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>904KCRNPU870</t>
+          <t>908KCHENJ745</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -13158,7 +13166,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>908KCPYNJ744</t>
+          <t>908KCXMPZ546</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -13196,7 +13204,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>908KCZPNJ749</t>
+          <t>904KCRNPU870</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -13234,7 +13242,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>908KCYQNJ746</t>
+          <t>908KCPYNJ744</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -13272,7 +13280,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>908KCHEPZ529</t>
+          <t>908KCZPNJ749</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -13305,12 +13313,12 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>86bh5c-b</t>
+          <t>49vl5d</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>607KCJZ1X236</t>
+          <t>908KCYQNJ746</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -13343,12 +13351,12 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>86bh5c-b</t>
+          <t>49vl5d</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>801KCEEAP4660</t>
+          <t>908KCHEPZ529</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -13381,12 +13389,12 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>88bh7d</t>
+          <t>86bh5c-b</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>907KCJZPM580</t>
+          <t>607KCJZ1X236</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -13419,12 +13427,12 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>49vl5d</t>
+          <t>86bh5c-b</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>909KCJZNV532</t>
+          <t>801KCEEAP4660</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -13457,12 +13465,12 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>49vl5d</t>
+          <t>88bh7d</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>904KCSFPU878</t>
+          <t>907KCJZPM580</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -13500,7 +13508,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>904KCPYPU872</t>
+          <t>909KCJZNV532</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -13538,7 +13546,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>904KCYQPU874</t>
+          <t>904KCSFPU878</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -13576,7 +13584,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>906KCGWM5407</t>
+          <t>904KCPYPU872</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -13614,7 +13622,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>908KCJZNJ740</t>
+          <t>904KCYQPU874</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -13647,12 +13655,12 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>86bh5c-b</t>
+          <t>49vl5d</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>801KCSFP4654</t>
+          <t>906KCGWM5407</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -13690,7 +13698,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>008KCBDN8661</t>
+          <t>908KCJZNJ740</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -13700,7 +13708,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Totem frente sala g</t>
+          <t>Yenny</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -13723,12 +13731,12 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>49vl5d</t>
+          <t>86bh5c-b</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>908KCYQPZ530</t>
+          <t>801KCSFP4654</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -13766,7 +13774,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>908KCCVNJ747</t>
+          <t>008KCBDN8661</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -13776,7 +13784,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Yenny</t>
+          <t>Totem frente sala g</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -13804,7 +13812,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>904KCQXPU876</t>
+          <t>908KCYQPZ530</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -13842,7 +13850,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>906KCLHM5408</t>
+          <t>908KCCVNJ747</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -13875,12 +13883,12 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>47lv35a</t>
+          <t>49vl5d</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>806KCBDP5093</t>
+          <t>904KCQXPU876</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -13918,7 +13926,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>908KCJZNJ740</t>
+          <t>906KCLHM5408</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -13956,7 +13964,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>806KCFTKE731</t>
+          <t>806KCBDP5093</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -13994,7 +14002,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>906KCSFM5406</t>
+          <t>908KCJZNJ740</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -14027,12 +14035,12 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>47lv35a-5b</t>
+          <t>47lv35a</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>711KCJZJZLD1124</t>
+          <t>806KCFTKE731</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -14070,7 +14078,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>908KCMRPZ539</t>
+          <t>906KCSFM5406</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -14103,12 +14111,12 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>49vl5d</t>
+          <t>47lv35a-5b</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>908KCRNPZ550</t>
+          <t>711KCJZJZLD1124</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -14141,12 +14149,12 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>47vl5d</t>
+          <t>49vl5d</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>806KCVUKE735</t>
+          <t>908KCMRPZ539</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -14184,7 +14192,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>903KCMRQ5707</t>
+          <t>908KCRNPZ550</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -14217,12 +14225,12 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>49vl5d</t>
+          <t>47vl5d</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>908KCEAPZ540</t>
+          <t>806KCVUKE735</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -14255,12 +14263,12 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>47lv35a</t>
+          <t>49vl5d</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>803KCEAPR172</t>
+          <t>903KCMRQ5707</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -14293,12 +14301,12 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>47lv35a</t>
+          <t>49vl5d</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>903KCGWPR167</t>
+          <t>908KCEAPZ540</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -14336,7 +14344,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>710KCWCLR329</t>
+          <t>803KCEAPR172</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -14374,7 +14382,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>806KCPYKE736</t>
+          <t>903KCGWPR167</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -14407,12 +14415,12 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>43sm5kd</t>
+          <t>47lv35a</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>811KCCVLF571</t>
+          <t>710KCWCLR329</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -14427,7 +14435,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>Instalacion de fids en embarque nacio</t>
+          <t xml:space="preserve">Ok </t>
         </is>
       </c>
       <c r="H366" t="inlineStr"/>
@@ -14445,12 +14453,12 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>43sm5kb</t>
+          <t>47lv35a</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>610KCLH23672</t>
+          <t>806KCPYKE736</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -14465,7 +14473,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>Instalacion de fids en embarque nacio</t>
+          <t xml:space="preserve">Ok </t>
         </is>
       </c>
       <c r="H367" t="inlineStr"/>
@@ -14483,12 +14491,12 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>43sm5kb</t>
+          <t>43sm5kd</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>610KCZP23765</t>
+          <t>811KCCVLF571</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -14503,7 +14511,7 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ok </t>
+          <t>Instalacion de fids en embarque nacio</t>
         </is>
       </c>
       <c r="H368" t="inlineStr"/>
@@ -14526,7 +14534,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>903KCQXQ5964</t>
+          <t>610KCLH23672</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -14564,7 +14572,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>610KCBD23685</t>
+          <t>610KCZP23765</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -14602,7 +14610,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>008KCASN8656</t>
+          <t>903KCQXQ5964</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -14612,12 +14620,12 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Totem frente sala g</t>
+          <t>Yenny</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ok </t>
+          <t>Instalacion de fids en embarque nacio</t>
         </is>
       </c>
       <c r="H371" t="inlineStr"/>
@@ -14640,7 +14648,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>008KCWCN8657</t>
+          <t>610KCBD23685</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -14650,7 +14658,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Totem frente sala g</t>
+          <t>Yenny</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -14668,17 +14676,17 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Lh65mdcalgcszb</t>
+          <t>43sm5kb</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>027MH9XF900200N</t>
+          <t>008KCASN8656</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -14688,7 +14696,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Yenny</t>
+          <t>Totem frente sala g</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -14706,17 +14714,17 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Lh65mdcalgcszb</t>
+          <t>43sm5kb</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>027MH9XF900092N</t>
+          <t>008KCWCN8657</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -14726,7 +14734,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Yenny</t>
+          <t>Totem frente sala g</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -14754,7 +14762,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>027MH9XFC00059A</t>
+          <t>027MH9XF900200N</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -14792,7 +14800,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>027MH9XF900021E</t>
+          <t>027MH9XF900092N</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -14830,7 +14838,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>027MH9XF900199H</t>
+          <t>027MH9XFC00059A</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -14858,17 +14866,17 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Uh46f5</t>
+          <t>Lh65mdcalgcszb</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>04AAHNJK400007</t>
+          <t>027MH9XF900021E</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -14896,17 +14904,17 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Uh46f5</t>
+          <t>Lh65mdcalgcszb</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>04AAHNJK500019</t>
+          <t>027MH9XF900199H</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -14944,7 +14952,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>04AAHNJK500013</t>
+          <t>04AAHNJK400007</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -14982,7 +14990,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>04AAHNJK500010</t>
+          <t>04AAHNJK500019</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -15020,7 +15028,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>04AAHNJJ700066</t>
+          <t>04AAHNJK500013</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -15058,7 +15066,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>04AAHNJK400016</t>
+          <t>04AAHNJK500010</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -15091,12 +15099,12 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>42wl10ms-b</t>
+          <t>Uh46f5</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>310KCPTCZ664</t>
+          <t>04AAHNJJ700066</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -15129,12 +15137,12 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>55svh7e</t>
+          <t>Uh46f5</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>904KCRNMZ406</t>
+          <t>04AAHNJK400016</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -15167,12 +15175,12 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>55svh7e</t>
+          <t>42wl10ms-b</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>606KCTB5K641</t>
+          <t>310KCPTCZ664</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -15210,7 +15218,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>904KCNLMZ615</t>
+          <t>904KCRNMZ406</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -15248,7 +15256,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>904KCBDMZ429</t>
+          <t>606KCTB5K641</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -15286,7 +15294,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>904KCFTMZ643</t>
+          <t>904KCNLMZ615</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -15324,7 +15332,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>904KCNLMZ423</t>
+          <t>904KCBDMZ429</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -15362,7 +15370,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>904KCMRMZ635</t>
+          <t>904KCFTMZ643</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -15400,7 +15408,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>904KCWCMZ425</t>
+          <t>904KCNLMZ423</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -15433,12 +15441,12 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Uh46f5</t>
+          <t>55svh7e</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>04AAHNJK500014</t>
+          <t>904KCMRMZ635</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -15471,12 +15479,12 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Uh46f6</t>
+          <t>55svh7e</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>04AAHNJK400011</t>
+          <t>904KCWCMZ425</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -15509,12 +15517,12 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>47lv35a</t>
+          <t>Uh46f5</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>803KCGWPR167</t>
+          <t>04AAHNJK500014</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -15547,12 +15555,12 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>47lv35a</t>
+          <t>Uh46f6</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>806KCXMKE730</t>
+          <t>04AAHNJK400011</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -15585,12 +15593,12 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>86bh5c</t>
+          <t>47lv35a</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>806KCKJK9837</t>
+          <t>803KCGWPR167</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -15600,19 +15608,15 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Yenny</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Ok </t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -15627,12 +15631,12 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>86bh5c-b</t>
+          <t>47lv35a</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>801KCPYP4648</t>
+          <t>806KCXMKE730</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -15642,19 +15646,15 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Yenny</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Ok </t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -15669,12 +15669,12 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>86bh5c-b</t>
+          <t>86bh5c</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>710KCUKMM950</t>
+          <t>806KCKJK9837</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>802KCKJM9645</t>
+          <t>801KCPYP4648</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -15758,7 +15758,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>801KCKJP4661</t>
+          <t>710KCUKMM950</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -15795,12 +15795,12 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>86bh5c</t>
+          <t>86bh5c-b</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>806KCNLK9839</t>
+          <t>802KCKJM9645</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -15842,7 +15842,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>702KCJZ4C932</t>
+          <t>801KCKJP4661</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -15879,12 +15879,12 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>86bh5c-b</t>
+          <t>86bh5c</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>610KCPY1N528</t>
+          <t>806KCNLK9839</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -15916,27 +15916,27 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Qm43b</t>
+          <t>86bh5c-b</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>0K3RHNCT700193</t>
+          <t>702KCJZ4C932</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Arribos nacionales</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -15946,7 +15946,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -15958,27 +15958,27 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Qm43b</t>
+          <t>86bh5c-b</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>0K3RHNCT700192</t>
+          <t>610KCPY1N528</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Arribos nacionales</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -16010,7 +16010,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>0K3RHNCT700160</t>
+          <t>0K3RHNCT700193</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -16052,7 +16052,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>0K3RHNCT700190</t>
+          <t>0K3RHNCT700192</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -16084,27 +16084,27 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>55sm5kb-b</t>
+          <t>Qm43b</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>606KCAS5K648</t>
+          <t>0K3RHNCT700160</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Arribos nacionales</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
@@ -16114,7 +16114,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -16131,22 +16131,22 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Lh40mecalgcszb</t>
+          <t>Qm43b</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>027KH9XF900125M</t>
+          <t>0K3RHNCT700190</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Arribos nacionales</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
@@ -16156,7 +16156,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -16168,17 +16168,17 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Lh40mecalgcszb</t>
+          <t>55sm5kb-b</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>027KH9XF700092P</t>
+          <t>606KCAS5K648</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -16198,7 +16198,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -16220,7 +16220,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>027KH9XF900121F</t>
+          <t>027KH9XF900125M</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -16262,7 +16262,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>027KH9XF700333L</t>
+          <t>027KH9XF700092P</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>027KH9XF900742D</t>
+          <t>027KH9XF900121F</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -16341,12 +16341,12 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Lh32mec</t>
+          <t>Lh40mecalgcszb</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Z6XNHCF700211A</t>
+          <t>027KH9XF700333L</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -16366,7 +16366,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -16383,12 +16383,12 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Lh32mec</t>
+          <t>Lh40mecalgcszb</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Z6XNHCF700235J</t>
+          <t>027KH9XF900742D</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -16430,7 +16430,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Z6XNHCJF700246Y</t>
+          <t>Z6XNHCF700211A</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -16472,7 +16472,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Z6XNHCJF700248J</t>
+          <t>Z6XNHCF700235J</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -16514,7 +16514,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Z6XNHCJF700249T</t>
+          <t>Z6XNHCJF700246Y</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -16556,7 +16556,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Z6XNHCJF700261P</t>
+          <t>Z6XNHCJF700248J</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -16593,12 +16593,12 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Lh40mecalgcszb</t>
+          <t>Lh32mec</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>027KH9XF700663Y</t>
+          <t>Z6XNHCJF700249T</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -16618,7 +16618,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -16640,7 +16640,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Z6XNHCJF700266R</t>
+          <t>Z6XNHCJF700261P</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -16682,7 +16682,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>027KH9XF700546D</t>
+          <t>027KH9XF700663Y</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -16719,12 +16719,12 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Lh32hbslbc</t>
+          <t>Lh32mec</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Z4U7HCJC700094Y</t>
+          <t>Z6XNHCJF700266R</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -16739,7 +16739,7 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>Hdmi ok</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
@@ -16756,17 +16756,17 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>43sm5kb</t>
+          <t>Lh40mecalgcszb</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>610KCUK23678</t>
+          <t>027KH9XF700546D</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -16786,7 +16786,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -16798,17 +16798,17 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>43sm5kb</t>
+          <t>Lh32hbslbc</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>610KCWC23681</t>
+          <t>Z4U7HCJC700094Y</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -16823,12 +16823,12 @@
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Hdmi ok</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -16840,17 +16840,17 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Lh40gwslbc</t>
+          <t>43sm5kb</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Z621HCJC900023L</t>
+          <t>610KCUK23678</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -16860,17 +16860,17 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>Baños</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>Disp ok, minfo fuera de serv</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -16887,12 +16887,12 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>M4213</t>
+          <t>43sm5kb</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>006KCNL9X911</t>
+          <t>610KCWC23681</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -16912,7 +16912,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -16924,17 +16924,17 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>M4224</t>
+          <t>Lh40gwslbc</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>006KCUK9T302</t>
+          <t>Z621HCJC900023L</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -16944,17 +16944,17 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>Coc</t>
+          <t>Baños</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Disp ok, minfo fuera de serv</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -16966,17 +16966,17 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Lh40mecalgcszb</t>
+          <t>M4213</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>027KH9XF900777Z</t>
+          <t>006KCNL9X911</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -16996,7 +16996,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -17008,17 +17008,17 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Lh40mecalgcszb</t>
+          <t>M4224</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>027KH9XF900039T</t>
+          <t>006KCUK9T302</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Coc</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -17038,7 +17038,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -17060,7 +17060,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>027KH9XF900109P</t>
+          <t>027KH9XF900777Z</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -17097,12 +17097,12 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Lh32hbslbc</t>
+          <t>Lh40mecalgcszb</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>ZU4SH1JBA00075K</t>
+          <t>027KH9XF900039T</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -17117,12 +17117,12 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>Se apaga sola</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -17139,12 +17139,12 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Lh32hbslbc</t>
+          <t>Lh40mecalgcszb</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>ZU4SH1JBA00058F</t>
+          <t>027KH9XF900109P</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -17159,12 +17159,12 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>Se apaga sola</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -17176,17 +17176,17 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>49sm5kd</t>
+          <t>Lh32hbslbc</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>903KCUKQ5734</t>
+          <t>ZU4SH1JBA00075K</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -17201,12 +17201,12 @@
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Se apaga sola</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -17223,12 +17223,12 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Lh65mdcalgcszb</t>
+          <t>Lh32hbslbc</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>027MH9XF900087V</t>
+          <t>ZU4SH1JBA00058F</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -17243,12 +17243,12 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Se apaga sola</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -17260,17 +17260,17 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Lh40mecalgcszb</t>
+          <t>49sm5kd</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>027KH9XF900110H</t>
+          <t>903KCUKQ5734</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -17290,7 +17290,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -17307,17 +17307,17 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Lh40mecalgcszb</t>
+          <t>Lh65mdcalgcszb</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>027KH9XF900792F</t>
+          <t>027MH9XF900087V</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -17327,12 +17327,12 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>Ok - entregado a scabini para psa</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -17344,17 +17344,17 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>55svh7e</t>
+          <t>Lh40mecalgcszb</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>904KCMRMZ611</t>
+          <t>027KH9XF900110H</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -17374,7 +17374,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -17386,22 +17386,22 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>88bh7d</t>
+          <t>Lh40mecalgcszb</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>907KCPYP7512</t>
+          <t>027KH9XF900792F</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -17411,12 +17411,12 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>Usada</t>
+          <t>Ok - entregado a scabini para psa</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -17428,17 +17428,17 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Lh40gwslbc/zb</t>
+          <t>55svh7e</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>ZU41H1JBA00071V</t>
+          <t>904KCMRMZ611</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -17453,10 +17453,14 @@
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>Ex puesto de diarios</t>
-        </is>
-      </c>
-      <c r="H441" t="inlineStr"/>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -17471,12 +17475,12 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>M413ccba</t>
+          <t>88bh7d</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>003KCSF7A806</t>
+          <t>907KCPYP7512</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -17491,10 +17495,14 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="H442" t="inlineStr"/>
+          <t>Usada</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -17509,12 +17517,12 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Lh40mecalgcszb</t>
+          <t>Lh40gwslbc/zb</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>027KH9XF900771W</t>
+          <t>ZU41H1JBA00071V</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -17529,14 +17537,10 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t>Ex puesto de diarios</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -17551,12 +17555,12 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>43sm5ke</t>
+          <t>M413ccba</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>911KCWCMQ601</t>
+          <t>003KCSF7A806</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -17574,11 +17578,7 @@
           <t>Ok</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
+      <c r="H444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -17593,12 +17593,12 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Lh46gwslbc/zb</t>
+          <t>Lh40mecalgcszb</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>ZU4THTFC100055W</t>
+          <t>027KH9XF900771W</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
@@ -17618,7 +17618,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -17635,12 +17635,12 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>88bh7d</t>
+          <t>43sm5ke</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>907KCHEPM941</t>
+          <t>911KCWCMQ601</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -17660,7 +17660,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -17677,12 +17677,12 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Lh55mecalgcszb</t>
+          <t>Lh46gwslbc/zb</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>027CH9XF800112J</t>
+          <t>ZU4THTFC100055W</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -17702,7 +17702,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -17714,17 +17714,17 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Lh46gwslbc/zb</t>
+          <t>88bh7d</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Z63DHCJC700054W</t>
+          <t>907KCHEPM941</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -17744,7 +17744,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -17756,17 +17756,17 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>42wl10ms</t>
+          <t>Lh55mecalgcszb</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>309KCRN58142</t>
+          <t>027CH9XF800112J</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -17786,7 +17786,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -17798,17 +17798,17 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>42wl10m8</t>
+          <t>Lh46gwslbc/zb</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>309KCRN58166</t>
+          <t>Z63DHCJC700054W</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -17828,7 +17828,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -17840,17 +17840,17 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Lh40mecalgcs/ze</t>
+          <t>42wl10ms</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>027KW9XF9000764Z</t>
+          <t>309KCRN58142</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -17870,7 +17870,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -17887,12 +17887,12 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>42wlm8</t>
+          <t>42wl10m8</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>406KCGW5Z399</t>
+          <t>309KCRN58166</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
@@ -17934,7 +17934,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>027KH9XF900031F</t>
+          <t>027KW9XF9000764Z</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -17966,17 +17966,17 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Lh46gwslbc/zb</t>
+          <t>42wlm8</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Z63DHCJC900026K</t>
+          <t>406KCGW5Z399</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -17996,7 +17996,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -18013,12 +18013,12 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Lh40gwslbc/zb</t>
+          <t>Lh40mecalgcs/ze</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>ZU41H1JBA00108Y</t>
+          <t>027KH9XF900031F</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -18028,12 +18028,12 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>Gate 6</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ok </t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
@@ -18055,12 +18055,12 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Lh40gwslbc/zb</t>
+          <t>Lh46gwslbc/zb</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>ZU41H1JBA00114W</t>
+          <t>Z63DHCJC900026K</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -18075,12 +18075,12 @@
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>Problemas del so</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -18097,12 +18097,12 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Lh46gwslbc/zb</t>
+          <t>Lh40gwslbc/zb</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>ZU4THTFC100022Z</t>
+          <t>ZU41H1JBA00108Y</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -18112,17 +18112,17 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>Cinta 2</t>
+          <t>Gate 6</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t xml:space="preserve">Ok </t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -18139,17 +18139,17 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Lh46gwslbc/zb</t>
+          <t>Lh40gwslbc/zb</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Z63DHCJC700062F</t>
+          <t>ZU41H1JBA00114W</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>RMA</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -18159,12 +18159,12 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Problemas del so</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -18181,12 +18181,12 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Lh40hbslbc</t>
+          <t>Lh46gwslbc/zb</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t xml:space="preserve">Z621HCJC700043L </t>
+          <t>ZU4THTFC100022Z</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -18196,17 +18196,17 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Cinta 2</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>Windows embebido</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -18223,17 +18223,17 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Lh40gwslbc/zb</t>
+          <t>Lh46gwslbc/zb</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>ZU41H1JBA00196H</t>
+          <t>Z63DHCJC700062F</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>RMA</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -18241,10 +18241,14 @@
           <t>T4</t>
         </is>
       </c>
-      <c r="G460" t="inlineStr"/>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -18256,18 +18260,22 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Lg</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr"/>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Lh40hbslbc</t>
+        </is>
+      </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>406CNL5Z383</t>
+          <t xml:space="preserve">Z621HCJC700043L </t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -18275,8 +18283,16 @@
           <t>T4</t>
         </is>
       </c>
-      <c r="G461" t="inlineStr"/>
-      <c r="H461" t="inlineStr"/>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>Windows embebido</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -18291,17 +18307,17 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Lh65mdc</t>
+          <t>Lh40gwslbc/zb</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>027MH9XF900204H</t>
+          <t>ZU41H1JBA00196H</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
@@ -18312,7 +18328,7 @@
       <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -18324,22 +18340,18 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Samsung</t>
-        </is>
-      </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>Hb32ps</t>
-        </is>
-      </c>
+          <t>Lg</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr"/>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Z4U7HCJC100012P</t>
+          <t>406CNL5Z383</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -18348,11 +18360,7 @@
         </is>
       </c>
       <c r="G463" t="inlineStr"/>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
+      <c r="H463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -18367,12 +18375,12 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Hb32ps</t>
+          <t>Lh65mdc</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Z4U7HCJD100022P</t>
+          <t>027MH9XF900204H</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -18388,7 +18396,7 @@
       <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -18400,22 +18408,22 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>42wl10ms</t>
+          <t>Hb32ps</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>406KCNL5Z383</t>
+          <t>Z4U7HCJC100012P</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
@@ -18423,14 +18431,10 @@
           <t>T4</t>
         </is>
       </c>
-      <c r="G465" t="inlineStr">
-        <is>
-          <t>Scrap</t>
-        </is>
-      </c>
+      <c r="G465" t="inlineStr"/>
       <c r="H465" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -18447,32 +18451,28 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>400uxn3</t>
+          <t>Hb32ps</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Z621HCJC900020M</t>
+          <t>Z4U7HCJD100022P</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>Cinta 3</t>
-        </is>
-      </c>
-      <c r="G466" t="inlineStr">
-        <is>
-          <t>Ex diario/funciona</t>
-        </is>
-      </c>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -18484,37 +18484,37 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>400uxn3</t>
+          <t>42wl10ms</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Z621HCJC60041T</t>
+          <t>406KCNL5Z383</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>Gate 20</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>Se encuentre en t4 / funciona</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -18536,7 +18536,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>ZU41H1JBA00210N</t>
+          <t>Z621HCJC900020M</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -18546,12 +18546,12 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>Cinta 5</t>
+          <t>Cinta 3</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>Problemas con el magicinfo</t>
+          <t>Ex diario/funciona</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
@@ -18578,22 +18578,22 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Z621HCJC900032J</t>
+          <t>Z621HCJC60041T</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Gate 20</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>Problemas con la fuente</t>
+          <t>Se encuentre en t4 / funciona</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
@@ -18620,22 +18620,22 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>ZU41HJBA00108V</t>
+          <t>ZU41H1JBA00210N</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Cinta 5</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Problemas con el magicinfo</t>
         </is>
       </c>
       <c r="H470" t="inlineStr">
@@ -18662,7 +18662,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Z621HCJC900069R</t>
+          <t>Z621HCJC900032J</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -18677,7 +18677,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Problemas con la fuente</t>
         </is>
       </c>
       <c r="H471" t="inlineStr">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Z621HCJC900026K</t>
+          <t>ZU41HJBA00108V</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
@@ -18746,7 +18746,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Z621HCJC600047P</t>
+          <t>Z621HCJC900069R</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -18788,7 +18788,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>ZU41H1JBA00131D</t>
+          <t>Z621HCJC900026K</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -18803,7 +18803,7 @@
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>Pantalla rota</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="H474" t="inlineStr">
@@ -18825,32 +18825,32 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>460uxn3</t>
+          <t>400uxn3</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Z63DHCJC700070P</t>
+          <t>Z621HCJC600047P</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>Videowall cinta 6</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>Funciona el magicinfo</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -18867,25 +18867,29 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>460uxn3</t>
+          <t>400uxn3</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>ZU41H1JBA00185M</t>
+          <t>ZU41H1JBA00131D</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>Cinta 6/ taxis</t>
-        </is>
-      </c>
-      <c r="G476" t="inlineStr"/>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>Pantalla rota</t>
+        </is>
+      </c>
       <c r="H476" t="inlineStr">
         <is>
           <t>40</t>
@@ -18905,12 +18909,12 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Lh40gwslbc/zb</t>
+          <t>460uxn3</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>ZU41H1JBA00008D</t>
+          <t>Z63DHCJC700070P</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -18920,17 +18924,17 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>Entre gate 2 y 3</t>
+          <t>Videowall cinta 6</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>Totem, al lado de gate 1, construccion sala vip</t>
+          <t>Funciona el magicinfo</t>
         </is>
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -18947,12 +18951,12 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Lh40gwslbc/zb</t>
+          <t>460uxn3</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Z621HCJC900062A</t>
+          <t>ZU41H1JBA00185M</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
@@ -18962,14 +18966,10 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>Le pain</t>
-        </is>
-      </c>
-      <c r="G478" t="inlineStr">
-        <is>
-          <t>Sacada de gate 6</t>
-        </is>
-      </c>
+          <t>Cinta 6/ taxis</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr"/>
       <c r="H478" t="inlineStr">
         <is>
           <t>40</t>
@@ -18994,22 +18994,22 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Z621HCJC700003F</t>
+          <t>ZU41H1JBA00008D</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Entre gate 2 y 3</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>Ex orsna</t>
+          <t>Totem, al lado de gate 1, construccion sala vip</t>
         </is>
       </c>
       <c r="H479" t="inlineStr">
@@ -19026,31 +19026,39 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>43sm5kd</t>
+          <t>Lh40gwslbc/zb</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>901KCXMQE666</t>
+          <t>Z621HCJC900062A</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>T4</t>
-        </is>
-      </c>
-      <c r="G480" t="inlineStr"/>
-      <c r="H480" t="inlineStr"/>
+          <t>Le pain</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>Sacada de gate 6</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -19060,17 +19068,17 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>43sm5kd</t>
+          <t>Lh40gwslbc/zb</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>811KCASLF488</t>
+          <t>Z621HCJC700003F</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
@@ -19083,8 +19091,16 @@
           <t>T4</t>
         </is>
       </c>
-      <c r="G481" t="inlineStr"/>
-      <c r="H481" t="inlineStr"/>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>Ex orsna</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -19094,17 +19110,17 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Lh46gwslbc/zb</t>
+          <t>43sm5kd</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>ZU4TH1JBA00015B</t>
+          <t>901KCXMQE666</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -19114,19 +19130,11 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>Cinta 2</t>
-        </is>
-      </c>
-      <c r="G482" t="inlineStr">
-        <is>
-          <t>Falla en display. Funciona magic info por el momento.</t>
-        </is>
-      </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>Se va a mandar a arreglar</t>
-        </is>
-      </c>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr"/>
+      <c r="H482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -19136,22 +19144,22 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Lh40gwslbc/zb</t>
+          <t>43sm5kd</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Z621HCJC900022V</t>
+          <t>811KCASLF488</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Fuera de Servicio</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -19159,16 +19167,8 @@
           <t>T4</t>
         </is>
       </c>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>Magic info roto. Ex vialidad</t>
-        </is>
-      </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>Magic info roto. Ex vialidad</t>
-        </is>
-      </c>
+      <c r="G483" t="inlineStr"/>
+      <c r="H483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -19183,12 +19183,12 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Lh40gwslbc/zb</t>
+          <t>Lh46gwslbc/zb</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>ZU41H1JBA00155A</t>
+          <t>ZU4TH1JBA00015B</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
@@ -19198,13 +19198,17 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>T4</t>
-        </is>
-      </c>
-      <c r="G484" t="inlineStr"/>
+          <t>Cinta 2</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>Falla en display. Funciona magic info por el momento.</t>
+        </is>
+      </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>Desmontada de Vialidad el 14/11</t>
+          <t>Se va a mandar a arreglar</t>
         </is>
       </c>
     </row>
@@ -19221,28 +19225,32 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>LH32MDBPLGC/ZB</t>
+          <t>Lh40gwslbc/zb</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Z5DHHCJC700018H</t>
+          <t>Z621HCJC900022V</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Fuera de Servicio</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>CAU</t>
-        </is>
-      </c>
-      <c r="G485" t="inlineStr"/>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>Magic info roto. Ex vialidad</t>
+        </is>
+      </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>En Credenciales. Con Cukemberg.</t>
+          <t>Magic info roto. Ex vialidad</t>
         </is>
       </c>
     </row>
@@ -19259,28 +19267,28 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Lh46gwslbc/zb</t>
+          <t>Lh40gwslbc/zb</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Z63DHCJC900014Z</t>
+          <t>ZU41H1JBA00155A</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>Cinta 2</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G486" t="inlineStr"/>
       <c r="H486" t="inlineStr">
         <is>
-          <t>En WV</t>
+          <t>Desmontada de Vialidad el 14/11</t>
         </is>
       </c>
     </row>
@@ -19297,12 +19305,12 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>UN43T5300AGCZB</t>
+          <t>LH32MDBPLGC/ZB</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>08FW36FW721373</t>
+          <t>Z5DHHCJC700018H</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -19312,13 +19320,13 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>CAU</t>
         </is>
       </c>
       <c r="G487" t="inlineStr"/>
       <c r="H487" t="inlineStr">
         <is>
-          <t>En oficina de Aldo Martino</t>
+          <t>En Credenciales. Con Cukemberg.</t>
         </is>
       </c>
     </row>
@@ -19335,12 +19343,12 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>UN43T5300AGCZB</t>
+          <t>Lh46gwslbc/zb</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>08FW36FW721353</t>
+          <t>Z63DHCJC900014Z</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -19350,13 +19358,13 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Cinta 2</t>
         </is>
       </c>
       <c r="G488" t="inlineStr"/>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Asignada a Alberio, Raul</t>
+          <t>En WV</t>
         </is>
       </c>
     </row>
@@ -19373,12 +19381,12 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>LH43QMBEBGCCZB</t>
+          <t>UN43T5300AGCZB</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>0NY4H9VW646864</t>
+          <t>08FW36FW721373</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
@@ -19388,13 +19396,13 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>Cinta 1 Nacionales</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="G489" t="inlineStr"/>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Nueva. En uso en Cinta 1.</t>
+          <t>En oficina de Aldo Martino</t>
         </is>
       </c>
     </row>
@@ -19411,12 +19419,12 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>LH43QMBEBGCCZB</t>
+          <t>UN43T5300AGCZB</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>0NY4H9VW714828</t>
+          <t>08FW36FW721353</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
@@ -19426,11 +19434,15 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>Cinta 1 Nacionales</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="G490" t="inlineStr"/>
-      <c r="H490" t="inlineStr"/>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>Asignada a Alberio, Raul</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -19445,12 +19457,12 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>LH32MDBPLGC/ZB</t>
+          <t>LH43QMBEBGCCZB</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>0NY4H9VW714829</t>
+          <t>0NY4H9VW646864</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -19464,7 +19476,11 @@
         </is>
       </c>
       <c r="G491" t="inlineStr"/>
-      <c r="H491" t="inlineStr"/>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>Nueva. En uso en Cinta 1.</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -19479,12 +19495,12 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>LH32MDBPLGC/ZB</t>
+          <t>LH43QMBEBGCCZB</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>0NY4H9VW646869</t>
+          <t>0NY4H9VW714828</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
@@ -19513,30 +19529,26 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Lh40gwslbc/zb</t>
+          <t>LH32MDBPLGC/ZB</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>ZU41H1JBA00162L</t>
+          <t>0NY4H9VW714829</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Fuera de Servicio</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>Cinta 1 Nacionales</t>
         </is>
       </c>
       <c r="G493" t="inlineStr"/>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>A reparar</t>
-        </is>
-      </c>
+      <c r="H493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -19551,22 +19563,22 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Lh40gwslbc/zb</t>
+          <t>LH32MDBPLGC/ZB</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>ZU41H1JBA00119K</t>
+          <t>0NY4H9VW646869</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Fuera de Servicio</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>Cinta 1 Nacionales</t>
         </is>
       </c>
       <c r="G494" t="inlineStr"/>
@@ -19580,33 +19592,33 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>43sm5kd</t>
+          <t>Lh40gwslbc/zb</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>709KCCVPM203</t>
+          <t>ZU41H1JBA00162L</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>Fuera de Servicio</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G495" t="inlineStr"/>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Ex Javier Aschieri</t>
+          <t>A reparar</t>
         </is>
       </c>
     </row>
@@ -19623,30 +19635,26 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>UN43T5300AGCZB</t>
+          <t>Lh40gwslbc/zb</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>0BFW36FW721366K</t>
+          <t>ZU41H1JBA00119K</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Fuera de Servicio</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G496" t="inlineStr"/>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>En uso por Javier Aschieri</t>
-        </is>
-      </c>
+      <c r="H496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -19656,33 +19664,33 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>UN43T5300AGCZB</t>
+          <t>43sm5kd</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>0BFW36FW721371</t>
+          <t>709KCCVPM203</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>CAU</t>
         </is>
       </c>
       <c r="G497" t="inlineStr"/>
       <c r="H497" t="inlineStr">
         <is>
-          <t>En uso por Alberio, Raul</t>
+          <t>Ex Javier Aschieri</t>
         </is>
       </c>
     </row>
@@ -19704,23 +19712,23 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>0BFW36FW721363</t>
+          <t>0BFW36FW721366K</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="G498" t="inlineStr"/>
       <c r="H498" t="inlineStr">
         <is>
-          <t>En Ezeiza. Trasladada por Tienda Leon el dia 8/11/23.</t>
+          <t>En uso por Javier Aschieri</t>
         </is>
       </c>
     </row>
@@ -19732,33 +19740,33 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Lg</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>55TC3D</t>
+          <t>UN43T5300AGCZB</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>909KCLHNW256</t>
+          <t>0BFW36FW721371</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="G499" t="inlineStr"/>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Vino desde Ezeiza.</t>
+          <t>En uso por Alberio, Raul</t>
         </is>
       </c>
     </row>
@@ -19775,28 +19783,28 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>LH43QMBEBGCCZB</t>
+          <t>UN43T5300AGCZB</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>0NY4H9VW646853</t>
+          <t>0BFW36FW721363</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>Vialidad</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G500" t="inlineStr"/>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Se instala semana del 20/11.</t>
+          <t>En Ezeiza. Trasladada por Tienda Leon el dia 8/11/23.</t>
         </is>
       </c>
     </row>
@@ -19808,33 +19816,33 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>LH43QMBEBGCCZB</t>
+          <t>55TC3D</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>0NY4H9VW646843</t>
+          <t>909KCLHNW256</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>Vialidad</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G501" t="inlineStr"/>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Se instala semana del 20/11</t>
+          <t>Vino desde Ezeiza.</t>
         </is>
       </c>
     </row>
@@ -19856,7 +19864,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>0NY4H9VW646844</t>
+          <t>0NY4H9VW646853</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
@@ -19872,7 +19880,7 @@
       <c r="G502" t="inlineStr"/>
       <c r="H502" t="inlineStr">
         <is>
-          <t>Instalada el dia 14/11</t>
+          <t>Se instala semana del 20/11.</t>
         </is>
       </c>
     </row>
@@ -19894,7 +19902,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>0NY4H9VW646871</t>
+          <t>0NY4H9VW646843</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
@@ -19910,7 +19918,7 @@
       <c r="G503" t="inlineStr"/>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Instalada el 14/11</t>
+          <t>Se instala semana del 20/11</t>
         </is>
       </c>
     </row>
@@ -19932,7 +19940,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>0NY4H9VW646866</t>
+          <t>0NY4H9VW646844</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
@@ -19948,7 +19956,7 @@
       <c r="G504" t="inlineStr"/>
       <c r="H504" t="inlineStr">
         <is>
-          <t>Instalada el 14/11</t>
+          <t>Instalada el dia 14/11</t>
         </is>
       </c>
     </row>
@@ -19965,28 +19973,28 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Lh40gwslbc/zb</t>
+          <t>LH43QMBEBGCCZB</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>Z621HCJC900029A</t>
+          <t>0NY4H9VW646871</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Vialidad</t>
         </is>
       </c>
       <c r="G505" t="inlineStr"/>
       <c r="H505" t="inlineStr">
         <is>
-          <t>Desmontada el 14/11 de vialidad.</t>
+          <t>Instalada el 14/11</t>
         </is>
       </c>
     </row>
@@ -20003,28 +20011,28 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Lh40gwslbc/zb</t>
+          <t>LH43QMBEBGCCZB</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>Z621HCJC600010X</t>
+          <t>0NY4H9VW646866</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Vialidad</t>
         </is>
       </c>
       <c r="G506" t="inlineStr"/>
       <c r="H506" t="inlineStr">
         <is>
-          <t>Desmontada el dia 14/11</t>
+          <t>Instalada el 14/11</t>
         </is>
       </c>
     </row>
@@ -20046,7 +20054,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>Z621HCJC600193Z</t>
+          <t>Z621HCJC900029A</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
@@ -20062,7 +20070,7 @@
       <c r="G507" t="inlineStr"/>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Desmontada el 14/11</t>
+          <t>Desmontada el 14/11 de vialidad.</t>
         </is>
       </c>
     </row>
@@ -20079,28 +20087,28 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>400uxn3</t>
+          <t>Lh40gwslbc/zb</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>Z621HCJC700008W</t>
+          <t>Z621HCJC600010X</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>Cinta 2</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G508" t="inlineStr"/>
       <c r="H508" t="inlineStr">
         <is>
-          <t>En uso en Gate 2.</t>
+          <t>Desmontada el dia 14/11</t>
         </is>
       </c>
     </row>
@@ -20122,23 +20130,23 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>ZU41H1JBA00176T</t>
+          <t>Z621HCJC600193Z</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>Gate 2 Nacional</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G509" t="inlineStr"/>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Instalada el dia 17/11</t>
+          <t>Desmontada el 14/11</t>
         </is>
       </c>
     </row>
@@ -20155,84 +20163,88 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>LH43QMBEBGCCZB</t>
+          <t>400uxn3</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>0NY4H9VW646861</t>
+          <t>Z621HCJC700008W</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Cinta 2</t>
         </is>
       </c>
       <c r="G510" t="inlineStr"/>
-      <c r="H510" t="inlineStr"/>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>En uso en Gate 2.</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Pc</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Precision 3620</t>
+          <t>Lh40gwslbc/zb</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>2BM9BM2</t>
+          <t>ZU41H1JBA00176T</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>Gate 2 Nacional</t>
         </is>
       </c>
       <c r="G511" t="inlineStr"/>
       <c r="H511" t="inlineStr">
         <is>
-          <t>Aviplan</t>
+          <t>Instalada el dia 17/11</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Pc</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Optiplex 3060</t>
+          <t>LH43QMBEBGCCZB</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>J1N3DS2</t>
+          <t>0NY4H9VW646861</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
@@ -20242,7 +20254,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G512" t="inlineStr"/>
@@ -20251,22 +20263,22 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Pc</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Elite desk 800</t>
+          <t>Lh40gwslbc/zb</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>MXL44520YJ</t>
+          <t>Z621HCJC900012B</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -20276,31 +20288,39 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>CAU</t>
-        </is>
-      </c>
-      <c r="G513" t="inlineStr"/>
-      <c r="H513" t="inlineStr"/>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>Ex FIDS frente Check In 33</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>Ex FIDS frente Check In 33</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Pc</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Optiplex 3020</t>
+          <t>Lh40gwslbc/zb</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>1DW1V52</t>
+          <t>Z621HCJC600174E</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
@@ -20310,11 +20330,19 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>CAU</t>
-        </is>
-      </c>
-      <c r="G514" t="inlineStr"/>
-      <c r="H514" t="inlineStr"/>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>Ex Frente Check In 33.</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>Ex Frente Check In 33.</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -20329,12 +20357,12 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Optiplex 3020</t>
+          <t>Precision 3620</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>1DD2V52</t>
+          <t>2BM9BM2</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
@@ -20348,7 +20376,11 @@
         </is>
       </c>
       <c r="G515" t="inlineStr"/>
-      <c r="H515" t="inlineStr"/>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>Aviplan</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -20363,12 +20395,12 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Optiplex 3080</t>
+          <t>Optiplex 3060</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>96MDLM3</t>
+          <t>J1N3DS2</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -20392,17 +20424,17 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Optiplex 3080</t>
+          <t>Elite desk 800</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>D8MDLM3</t>
+          <t>MXL44520YJ</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -20431,12 +20463,12 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Optiplex 3040</t>
+          <t>Optiplex 3020</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>G7JJJB2</t>
+          <t>1DW1V52</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -20465,12 +20497,12 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Precision 3620</t>
+          <t>Optiplex 3020</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>JV1YZLZ</t>
+          <t>1DD2V52</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -20499,12 +20531,12 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Optiplex 3050</t>
+          <t>Optiplex 3080</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>72601M2</t>
+          <t>96MDLM3</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
@@ -20533,12 +20565,12 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Optiplex 3050</t>
+          <t>Optiplex 3080</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>986R0M2</t>
+          <t>D8MDLM3</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
@@ -20567,12 +20599,12 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Optiplex 3050</t>
+          <t>Optiplex 3040</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>980R0M2</t>
+          <t>G7JJJB2</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
@@ -20582,15 +20614,11 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>Sala Vip</t>
+          <t>CAU</t>
         </is>
       </c>
       <c r="G522" t="inlineStr"/>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>Sala Vip</t>
-        </is>
-      </c>
+      <c r="H522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -20605,12 +20633,12 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Optiplex 3040</t>
+          <t>Precision 3620</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>G56HJB2</t>
+          <t>JV1YZLZ</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -20639,12 +20667,12 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Optiplex 3040</t>
+          <t>Optiplex 3050</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>65QKJB2</t>
+          <t>72601M2</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
@@ -20678,7 +20706,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>96ZQ0M2</t>
+          <t>986R0M2</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
@@ -20707,12 +20735,12 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Optiplex 3060</t>
+          <t>Optiplex 3050</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>JT47DS2</t>
+          <t>980R0M2</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
@@ -20722,11 +20750,15 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>Sala Vip</t>
         </is>
       </c>
       <c r="G526" t="inlineStr"/>
-      <c r="H526" t="inlineStr"/>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>Sala Vip</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -20741,12 +20773,12 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Optiplex 3020</t>
+          <t>Optiplex 3040</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>1DK7V52</t>
+          <t>G56HJB2</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
@@ -20775,12 +20807,12 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Optiplex 3020</t>
+          <t>Optiplex 3040</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>1F0CV52</t>
+          <t>65QKJB2</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
@@ -20804,17 +20836,17 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Elite desk 800</t>
+          <t>Optiplex 3050</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>MXL44521SS</t>
+          <t>96ZQ0M2</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
@@ -20838,17 +20870,17 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t xml:space="preserve">  compaq</t>
+          <t>Optiplex 3060</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>MXJ82305HK</t>
+          <t>JT47DS2</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
@@ -20882,7 +20914,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>1DR4V52</t>
+          <t>1DK7V52</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -20916,7 +20948,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>1F49V52</t>
+          <t>1F0CV52</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
@@ -20945,12 +20977,12 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Elite 8300</t>
+          <t>Elite desk 800</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>MXL34519QQ</t>
+          <t>MXL44521SS</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
@@ -20960,7 +20992,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>COC</t>
+          <t>CAU</t>
         </is>
       </c>
       <c r="G533" t="inlineStr"/>
@@ -20974,30 +21006,30 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Cougar</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr"/>
+          <t>Hp</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  compaq</t>
+        </is>
+      </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>S/D</t>
+          <t>MXJ82305HK</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>Bariloche</t>
-        </is>
-      </c>
-      <c r="G534" t="inlineStr">
-        <is>
-          <t>Bariloche con placa de video</t>
-        </is>
-      </c>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr"/>
       <c r="H534" t="inlineStr"/>
     </row>
     <row r="535">
@@ -21008,17 +21040,17 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Elite 8300</t>
+          <t>Optiplex 3020</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>MXL3381WX4</t>
+          <t>1DR4V52</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
@@ -21032,11 +21064,7 @@
         </is>
       </c>
       <c r="G535" t="inlineStr"/>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>Ex COC</t>
-        </is>
-      </c>
+      <c r="H535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -21056,24 +21084,20 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>1DX2V52</t>
+          <t>1F49V52</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>Control Terminal</t>
-        </is>
-      </c>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>Ex credenciales</t>
-        </is>
-      </c>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr"/>
       <c r="H536" t="inlineStr"/>
     </row>
     <row r="537">
@@ -21089,34 +21113,26 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Compaq 6000</t>
+          <t>Elite 8300</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>BRG019FCLT</t>
+          <t>MXL34519QQ</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>CAU</t>
-        </is>
-      </c>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>Ex control terminal</t>
-        </is>
-      </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>Windows 7 y 4gb de RAM</t>
-        </is>
-      </c>
+          <t>COC</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr"/>
+      <c r="H537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -21126,78 +21142,74 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Dell</t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr">
-        <is>
-          <t>Optiplex 3060</t>
-        </is>
-      </c>
+          <t>Cougar</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr"/>
       <c r="D538" t="inlineStr">
         <is>
-          <t>JT3YCS2</t>
+          <t>S/D</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>CAU</t>
-        </is>
-      </c>
-      <c r="G538" t="inlineStr"/>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>Estaba ubicada en Jefatura Parking</t>
-        </is>
-      </c>
+          <t>Bariloche</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>Bariloche con placa de video</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Pc escritorio</t>
+          <t>Pc</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Optiplex 3000</t>
+          <t>Elite 8300</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>2TFD9R3</t>
+          <t>MXL3381WX4</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
-        </is>
-      </c>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="H539" t="inlineStr"/>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr"/>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>Ex COC</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Pc escritorio</t>
+          <t>Pc</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -21207,27 +21219,27 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Optiplex 3000</t>
+          <t>Optiplex 3020</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>1RFD9R3</t>
+          <t>1DX2V52</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>Control Terminal</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Ex credenciales</t>
         </is>
       </c>
       <c r="H540" t="inlineStr"/>
@@ -21235,45 +21247,49 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Pc escritorio</t>
+          <t>Pc</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Optiplex 3000</t>
+          <t>Compaq 6000</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>DKBD9R3</t>
+          <t>BRG019FCLT</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>CAU</t>
         </is>
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="H541" t="inlineStr"/>
+          <t>Ex control terminal</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>Windows 7 y 4gb de RAM</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Pc escritorio</t>
+          <t>Pc</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -21283,30 +21299,30 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Optiplex 3000</t>
+          <t>Optiplex 3060</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>4JBD9R3</t>
+          <t>JT3YCS2</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
-        </is>
-      </c>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="H542" t="inlineStr"/>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr"/>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>Estaba ubicada en Jefatura Parking</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -21326,7 +21342,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>HLBD9R3</t>
+          <t>2TFD9R3</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
@@ -21364,7 +21380,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>HKBD9R3</t>
+          <t>1RFD9R3</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
@@ -21402,7 +21418,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>GMBD9R3</t>
+          <t>DKBD9R3</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
@@ -21440,7 +21456,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>2SFD9R3</t>
+          <t>4JBD9R3</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
@@ -21473,12 +21489,12 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Optiplex 3070</t>
+          <t>Optiplex 3000</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>HS57933</t>
+          <t>HLBD9R3</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
@@ -21488,7 +21504,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>Emb. nacional 8-9</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G547" t="inlineStr">
@@ -21511,12 +21527,12 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Optiplex 3070</t>
+          <t>Optiplex 3000</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>4S57933</t>
+          <t>HKBD9R3</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
@@ -21526,7 +21542,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>Emb. nacional 8-9</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G548" t="inlineStr">
@@ -21549,12 +21565,12 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Optiplex 3070</t>
+          <t>Optiplex 3000</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>3S57933</t>
+          <t>GMBD9R3</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
@@ -21564,7 +21580,7 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>Emb. nacional 8-9</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G549" t="inlineStr">
@@ -21587,12 +21603,12 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Optiplex 3070</t>
+          <t>Optiplex 3000</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>FR57933</t>
+          <t>2SFD9R3</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
@@ -21602,7 +21618,7 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>Emb. nacional 8-9</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G550" t="inlineStr">
@@ -21625,12 +21641,12 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Optiplex 3080</t>
+          <t>Optiplex 3070</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>DF5BLM3</t>
+          <t>HS57933</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
@@ -21640,7 +21656,7 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>Emb. nacional 8-9</t>
         </is>
       </c>
       <c r="G551" t="inlineStr">
@@ -21663,12 +21679,12 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Optiplex 3080</t>
+          <t>Optiplex 3070</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>13LBLM3</t>
+          <t>4S57933</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
@@ -21678,7 +21694,7 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>Emb. nacional 8-9</t>
         </is>
       </c>
       <c r="G552" t="inlineStr">
@@ -21701,12 +21717,12 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Optiplex 3080</t>
+          <t>Optiplex 3070</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>61LBLM3</t>
+          <t>3S57933</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
@@ -21716,7 +21732,7 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>Emb. nacional 8-9</t>
         </is>
       </c>
       <c r="G553" t="inlineStr">
@@ -21724,11 +21740,7 @@
           <t>Ok</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>Se le saco mouse Gaston Falczuk.</t>
-        </is>
-      </c>
+      <c r="H553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -21743,12 +21755,12 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Optiplex 3080</t>
+          <t>Optiplex 3070</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>J2LBLM3</t>
+          <t>FR57933</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
@@ -21758,7 +21770,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>Emb. nacional 8-9</t>
         </is>
       </c>
       <c r="G554" t="inlineStr">
@@ -21786,7 +21798,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>51LBLM3</t>
+          <t>DF5BLM3</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
@@ -21824,7 +21836,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>98PBLM3</t>
+          <t>13LBLM3</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
@@ -21862,7 +21874,7 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>D1LBLM3</t>
+          <t>61LBLM3</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
@@ -21880,7 +21892,11 @@
           <t>Ok</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr"/>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>Se le saco mouse Gaston Falczuk.</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -21900,7 +21916,7 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>CFSBLM3</t>
+          <t>51LBLM3</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
@@ -21938,7 +21954,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>43LBLM3</t>
+          <t>98PBLM3</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
@@ -21976,7 +21992,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>H1LBLM3</t>
+          <t>D1LBLM3</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
@@ -21994,11 +22010,7 @@
           <t>Ok</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>Se le saca mouse para Sonia Gallardo.</t>
-        </is>
-      </c>
+      <c r="H560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -22018,7 +22030,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>41LBLM3</t>
+          <t>CFSBLM3</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
@@ -22056,7 +22068,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>D8PBLM3</t>
+          <t>43LBLM3</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
@@ -22094,7 +22106,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>32LBLM3</t>
+          <t>H1LBLM3</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
@@ -22112,7 +22124,11 @@
           <t>Ok</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr"/>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>Se le saca mouse para Sonia Gallardo.</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -22132,7 +22148,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>GDSBLM3</t>
+          <t>41LBLM3</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
@@ -22170,7 +22186,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>CMWBLM3</t>
+          <t>D8PBLM3</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
@@ -22208,7 +22224,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>G8PBLM3</t>
+          <t>32LBLM3</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
@@ -22226,11 +22242,7 @@
           <t>Ok</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>Se saca mouse para mantenimiento.</t>
-        </is>
-      </c>
+      <c r="H566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -22250,7 +22262,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>9DSBLM3</t>
+          <t>GDSBLM3</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
@@ -22288,7 +22300,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>GMWBLM3</t>
+          <t>CMWBLM3</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
@@ -22326,7 +22338,7 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>21LBLM3</t>
+          <t>G8PBLM3</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
@@ -22344,7 +22356,11 @@
           <t>Ok</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr"/>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>Se saca mouse para mantenimiento.</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -22364,7 +22380,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>22LBLM3</t>
+          <t>9DSBLM3</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
@@ -22402,7 +22418,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>62LBLM3</t>
+          <t>GMWBLM3</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -22440,7 +22456,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>JMWBLM3</t>
+          <t>21LBLM3</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -22478,7 +22494,7 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>GFSBLM3</t>
+          <t>22LBLM3</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
@@ -22516,7 +22532,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>72LBLM3</t>
+          <t>62LBLM3</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -22554,7 +22570,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>B3LBLM3</t>
+          <t>JMWBLM3</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
@@ -22592,7 +22608,7 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>81LBLM3</t>
+          <t>GFSBLM3</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
@@ -22630,7 +22646,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>H2LBLM3</t>
+          <t>72LBLM3</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
@@ -22668,7 +22684,7 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>1CPBLM3</t>
+          <t>B3LBLM3</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
@@ -22706,7 +22722,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>BBPBLM3</t>
+          <t>81LBLM3</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
@@ -22744,7 +22760,7 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>4GSBLM3</t>
+          <t>H2LBLM3</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
@@ -22782,7 +22798,7 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>B1LBLM3</t>
+          <t>1CPBLM3</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
@@ -22820,7 +22836,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>B2LBLM3</t>
+          <t>BBPBLM3</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
@@ -22858,7 +22874,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>42LBLM3</t>
+          <t>4GSBLM3</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
@@ -22896,7 +22912,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>BGSBLM3</t>
+          <t>B1LBLM3</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
@@ -22924,22 +22940,22 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Elitedesk 800 g1 sff</t>
+          <t>Optiplex 3080</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>MXL44521T5</t>
+          <t>42LBLM3</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F585" t="inlineStr">
@@ -22949,7 +22965,7 @@
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>Sin disco ni fuente</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H585" t="inlineStr"/>
@@ -22962,22 +22978,22 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Compaq 6000 pro</t>
+          <t>Optiplex 3080</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>MXL1040V27</t>
+          <t>BGSBLM3</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F586" t="inlineStr">
@@ -22987,7 +23003,7 @@
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>Faltante ram</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H586" t="inlineStr"/>
@@ -23000,22 +23016,22 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Optiplex 3020</t>
+          <t>Elitedesk 800 g1 sff</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>1DJ3V52</t>
+          <t>MXL44521T5</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
@@ -23025,7 +23041,7 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>Gabinete vacio</t>
+          <t>Sin disco ni fuente</t>
         </is>
       </c>
       <c r="H587" t="inlineStr"/>
@@ -23043,12 +23059,12 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Compaq 6200 pro</t>
+          <t>Compaq 6000 pro</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>MXL2030T3K</t>
+          <t>MXL1040V27</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
@@ -23063,7 +23079,7 @@
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sin disco </t>
+          <t>Faltante ram</t>
         </is>
       </c>
       <c r="H588" t="inlineStr"/>
@@ -23086,7 +23102,7 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>1F44V52</t>
+          <t>1DJ3V52</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
@@ -23101,7 +23117,7 @@
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sin disco </t>
+          <t>Gabinete vacio</t>
         </is>
       </c>
       <c r="H589" t="inlineStr"/>
@@ -23124,7 +23140,7 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>MXL20334T7</t>
+          <t>MXL2030T3K</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
@@ -23152,22 +23168,22 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Compaq 6200 pro</t>
+          <t>Optiplex 3020</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>MXL2030T2W</t>
+          <t>1F44V52</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
@@ -23177,7 +23193,7 @@
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>Sin ram</t>
+          <t xml:space="preserve">Sin disco </t>
         </is>
       </c>
       <c r="H591" t="inlineStr"/>
@@ -23195,12 +23211,12 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Compaq elite</t>
+          <t>Compaq 6200 pro</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>MXL3381WYR</t>
+          <t>MXL20334T7</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
@@ -23233,12 +23249,12 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Compaq 6000 pro</t>
+          <t>Compaq 6200 pro</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>BRG019FCM1</t>
+          <t>MXL2030T2W</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -23271,12 +23287,12 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Compaq 6000 pro</t>
+          <t>Compaq elite</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>BRG019FCS7</t>
+          <t>MXL3381WYR</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -23291,7 +23307,7 @@
       </c>
       <c r="G594" t="inlineStr">
         <is>
-          <t>Sin ram</t>
+          <t xml:space="preserve">Sin disco </t>
         </is>
       </c>
       <c r="H594" t="inlineStr"/>
@@ -23309,12 +23325,12 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Compaq dc5750</t>
+          <t>Compaq 6000 pro</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>MXJ80406G3</t>
+          <t>BRG019FCM1</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -23329,7 +23345,7 @@
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>F/s</t>
+          <t>Sin ram</t>
         </is>
       </c>
       <c r="H595" t="inlineStr"/>
@@ -23347,12 +23363,12 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Compaq elite 8300</t>
+          <t>Compaq 6000 pro</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>MXL3381WWN</t>
+          <t>BRG019FCS7</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -23385,12 +23401,12 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Compaq 6000 pro</t>
+          <t>Compaq dc5750</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>BRG019FCKS</t>
+          <t>MXJ80406G3</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -23405,7 +23421,7 @@
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>Mother f/s, freeze en boot</t>
+          <t>F/s</t>
         </is>
       </c>
       <c r="H597" t="inlineStr"/>
@@ -23423,12 +23439,12 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Compaq 6000 pro</t>
+          <t>Compaq elite 8300</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>BRG019FCK7</t>
+          <t>MXL3381WWN</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -23461,12 +23477,12 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Compaq 6200 pro</t>
+          <t>Compaq 6000 pro</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>MXL2030T2N</t>
+          <t>BRG019FCKS</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -23481,7 +23497,7 @@
       </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Mother f/s, freeze en boot</t>
         </is>
       </c>
       <c r="H599" t="inlineStr"/>
@@ -23499,12 +23515,12 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Compaq dc5750</t>
+          <t>Compaq 6000 pro</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>MXJ72304MD</t>
+          <t>BRG019FCK7</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
@@ -23519,7 +23535,7 @@
       </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Sin ram</t>
         </is>
       </c>
       <c r="H600" t="inlineStr"/>
@@ -23532,22 +23548,22 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>Optiplex 3000</t>
+          <t>Compaq 6200 pro</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>FVFD9R3</t>
+          <t>MXL2030T2N</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F601" t="inlineStr">
@@ -23570,22 +23586,22 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>Optiplex 3080</t>
+          <t>Compaq dc5750</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>D9PBLM3</t>
+          <t>MXJ72304MD</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F602" t="inlineStr">
@@ -23603,7 +23619,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>Periferico</t>
+          <t>Pc escritorio</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -23613,12 +23629,12 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t xml:space="preserve">Km5221w </t>
+          <t>Optiplex 3000</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B18EA01</t>
+          <t>FVFD9R3</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
@@ -23628,12 +23644,12 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>6°to piso</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G603" t="inlineStr">
         <is>
-          <t>Adrian di chiacchio</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H603" t="inlineStr"/>
@@ -23641,7 +23657,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Periferico</t>
+          <t>Pc escritorio</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -23651,12 +23667,12 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t xml:space="preserve">Km5221w </t>
+          <t>Optiplex 3080</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B18DA01</t>
+          <t>D9PBLM3</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
@@ -23666,12 +23682,12 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>En caja</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H604" t="inlineStr"/>
@@ -23694,7 +23710,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B18CA01</t>
+          <t>CN04T25DLO300192B18EA01</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
@@ -23704,12 +23720,12 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>6°to piso</t>
         </is>
       </c>
       <c r="G605" t="inlineStr">
         <is>
-          <t>En caja</t>
+          <t>Adrian di chiacchio</t>
         </is>
       </c>
       <c r="H605" t="inlineStr"/>
@@ -23732,7 +23748,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B18GA01</t>
+          <t>CN04T25DLO300192B18DA01</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
@@ -23770,7 +23786,7 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B18FA01</t>
+          <t>CN04T25DLO300192B18CA01</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
@@ -23808,7 +23824,7 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B187A01</t>
+          <t>CN04T25DLO300192B18GA01</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
@@ -23846,7 +23862,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B188A01</t>
+          <t>CN04T25DLO300192B18FA01</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
@@ -23884,7 +23900,7 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B189A01</t>
+          <t>CN04T25DLO300192B187A01</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
@@ -23922,7 +23938,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B18AA01</t>
+          <t>CN04T25DLO300192B188A01</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
@@ -23960,7 +23976,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B18BA01</t>
+          <t>CN04T25DLO300192B189A01</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
@@ -23998,7 +24014,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B16BA01</t>
+          <t>CN04T25DLO300192B18AA01</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
@@ -24008,12 +24024,12 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>6°to piso</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G613" t="inlineStr">
         <is>
-          <t>Pablo sabbadinni</t>
+          <t>En caja</t>
         </is>
       </c>
       <c r="H613" t="inlineStr"/>
@@ -24036,7 +24052,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B169A01</t>
+          <t>CN04T25DLO300192B18BA01</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
@@ -24059,7 +24075,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>Teclado</t>
+          <t>Periferico</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -24069,35 +24085,35 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Inalambrico</t>
+          <t xml:space="preserve">Km5221w </t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>S/D</t>
+          <t>CN04T25DLO300192B16BA01</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>CAU</t>
-        </is>
-      </c>
-      <c r="G615" t="inlineStr"/>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>En caja</t>
-        </is>
-      </c>
+          <t>6°to piso</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>Pablo sabbadinni</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Teclado</t>
+          <t>Periferico</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -24107,30 +24123,30 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>Inalambrico</t>
+          <t xml:space="preserve">Km5221w </t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>S/D</t>
+          <t>CN04T25DLO300192B169A01</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>CAU</t>
-        </is>
-      </c>
-      <c r="G616" t="inlineStr"/>
-      <c r="H616" t="inlineStr">
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
         <is>
           <t>En caja</t>
         </is>
       </c>
+      <c r="H616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -24166,7 +24182,7 @@
       <c r="G617" t="inlineStr"/>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Sin USB</t>
+          <t>En caja</t>
         </is>
       </c>
     </row>
@@ -24204,7 +24220,7 @@
       <c r="G618" t="inlineStr"/>
       <c r="H618" t="inlineStr">
         <is>
-          <t>Sin usb</t>
+          <t>En caja</t>
         </is>
       </c>
     </row>
@@ -24330,7 +24346,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Logitech</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -24356,7 +24372,7 @@
       <c r="G622" t="inlineStr"/>
       <c r="H622" t="inlineStr">
         <is>
-          <t>Sin USB</t>
+          <t>Sin usb</t>
         </is>
       </c>
     </row>
@@ -24373,7 +24389,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Inalambrico</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
@@ -24394,7 +24410,7 @@
       <c r="G623" t="inlineStr"/>
       <c r="H623" t="inlineStr">
         <is>
-          <t>En caja</t>
+          <t>Sin USB</t>
         </is>
       </c>
     </row>
@@ -24406,12 +24422,12 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Logitech</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Inalambrico</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
@@ -24421,7 +24437,7 @@
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F624" t="inlineStr">
@@ -24432,7 +24448,7 @@
       <c r="G624" t="inlineStr"/>
       <c r="H624" t="inlineStr">
         <is>
-          <t>En caja</t>
+          <t>Sin USB</t>
         </is>
       </c>
     </row>
@@ -24459,7 +24475,7 @@
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F625" t="inlineStr">
@@ -24720,21 +24736,25 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>CN-0F2J-V2LO300-787-02T6-A03</t>
+          <t>S/D</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>Control terminal</t>
+          <t>CAU</t>
         </is>
       </c>
       <c r="G632" t="inlineStr"/>
-      <c r="H632" t="inlineStr"/>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>En caja</t>
+        </is>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -24759,7 +24779,7 @@
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F633" t="inlineStr">
@@ -24767,14 +24787,10 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G633" t="inlineStr">
-        <is>
-          <t>Flecha hacia arriba rota</t>
-        </is>
-      </c>
+      <c r="G633" t="inlineStr"/>
       <c r="H633" t="inlineStr">
         <is>
-          <t>Ex Lopez</t>
+          <t>En caja</t>
         </is>
       </c>
     </row>
@@ -24796,7 +24812,7 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>18Q-0GSK-A04</t>
+          <t>CN-0F2J-V2LO300-787-02T6-A03</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
@@ -24806,14 +24822,10 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>Sala VIP</t>
-        </is>
-      </c>
-      <c r="G634" t="inlineStr">
-        <is>
-          <t>Sala vip</t>
-        </is>
-      </c>
+          <t>Control terminal</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr"/>
       <c r="H634" t="inlineStr"/>
     </row>
     <row r="635">
@@ -24829,30 +24841,34 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Wk717</t>
+          <t>Cable</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>CN-0GKV4F-LO300-98G-K0CF-A06</t>
+          <t>S/D</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>Mantenimiento</t>
+          <t>CAU</t>
         </is>
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>Mantenimiento</t>
-        </is>
-      </c>
-      <c r="H635" t="inlineStr"/>
+          <t>Flecha hacia arriba rota</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>Ex Lopez</t>
+        </is>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -24872,7 +24888,7 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>CN-0F2JV2-LO300-7B8-05R7-A03</t>
+          <t>18Q-0GSK-A04</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
@@ -24882,19 +24898,15 @@
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>Parking Sur</t>
+          <t>Sala VIP</t>
         </is>
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t>Parking sur</t>
-        </is>
-      </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>Gabriela Jara</t>
-        </is>
-      </c>
+          <t>Sala vip</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -24909,12 +24921,12 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Wk717</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>CN-0F2JV2-LO300-7A5-00TE-A03</t>
+          <t>CN-0GKV4F-LO300-98G-K0CF-A06</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
@@ -24924,12 +24936,12 @@
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Mantenimiento</t>
         </is>
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>Reyna ricardo</t>
+          <t>Mantenimiento</t>
         </is>
       </c>
       <c r="H637" t="inlineStr"/>
@@ -24952,25 +24964,105 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
+          <t>CN-0F2JV2-LO300-7B8-05R7-A03</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>En uso</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>Parking Sur</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>Parking sur</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>Gabriela Jara</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Teclado</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Cable</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>CN-0F2JV2-LO300-7A5-00TE-A03</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>En uso</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>Reyna ricardo</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Teclado</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Cable</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
           <t>CN-0F2JV2-L0300-08Q-0004V</t>
         </is>
       </c>
-      <c r="E638" t="inlineStr">
-        <is>
-          <t>Nuevo</t>
-        </is>
-      </c>
-      <c r="F638" t="inlineStr">
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>Nuevo</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
         <is>
           <t>San Fernando (SFO)</t>
         </is>
       </c>
-      <c r="G638" t="inlineStr">
+      <c r="G640" t="inlineStr">
         <is>
           <t xml:space="preserve">Se envio a san fernando </t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
+      <c r="H640" t="inlineStr">
         <is>
           <t>TAG: JMWBLM3</t>
         </is>

--- a/stockcau/static/nuevo_inventario.xlsx
+++ b/stockcau/static/nuevo_inventario.xlsx
@@ -9498,7 +9498,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G235" t="inlineStr"/>
@@ -9536,7 +9536,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G236" t="inlineStr"/>
@@ -18268,7 +18268,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
@@ -18772,7 +18772,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -18898,7 +18898,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
@@ -18982,7 +18982,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
@@ -19276,7 +19276,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
@@ -20108,7 +20108,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
@@ -20276,7 +20276,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
@@ -20318,7 +20318,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G513" t="inlineStr"/>
@@ -21278,7 +21278,7 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G537" t="inlineStr"/>
@@ -21608,7 +21608,7 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G546" t="inlineStr"/>
@@ -22170,12 +22170,12 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G561" t="inlineStr"/>
@@ -22213,7 +22213,7 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G562" t="inlineStr"/>
@@ -22408,10 +22408,15 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>T4</t>
-        </is>
-      </c>
-      <c r="G567" t="inlineStr"/>
+          <t>Parking Rio</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="H567" t="inlineStr">
         <is>
           <t>Ex ORSNA.</t>
@@ -22441,12 +22446,12 @@
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>ORSNA</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G568" t="inlineStr"/>
@@ -22484,7 +22489,7 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G569" t="inlineStr"/>
@@ -22522,7 +22527,7 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G570" t="inlineStr"/>
@@ -22560,7 +22565,7 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G571" t="inlineStr"/>
@@ -22940,7 +22945,7 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G581" t="inlineStr">
@@ -22982,7 +22987,7 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G582" t="inlineStr"/>
@@ -23316,7 +23321,7 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G591" t="inlineStr"/>
@@ -23726,7 +23731,7 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G602" t="inlineStr"/>
@@ -24208,7 +24213,7 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G615" t="inlineStr"/>
@@ -24512,7 +24517,7 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G623" t="inlineStr"/>
@@ -24778,7 +24783,7 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G630" t="inlineStr"/>
@@ -24892,7 +24897,7 @@
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G633" t="inlineStr"/>
@@ -24968,7 +24973,7 @@
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G635" t="inlineStr"/>
@@ -25540,7 +25545,7 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G651" t="inlineStr"/>
@@ -25578,7 +25583,7 @@
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G652" t="inlineStr"/>
@@ -25650,7 +25655,7 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G654" t="inlineStr"/>
@@ -25722,7 +25727,7 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G656" t="inlineStr"/>
@@ -25870,7 +25875,7 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G660" t="inlineStr"/>
@@ -26294,7 +26299,7 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G672" t="inlineStr"/>
@@ -26341,22 +26346,22 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Pc</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Precision 3620</t>
+          <t>Lh40mecalgcszb</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>2BM9BM2</t>
+          <t>027KH9XF700742D</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
@@ -26366,35 +26371,31 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G674" t="inlineStr"/>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>Aviplan</t>
-        </is>
-      </c>
+      <c r="H674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>Pc</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>Optiplex 3060</t>
+          <t>Lh40gwslbc</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>J1N3DS2</t>
+          <t>ZU4H1JBA00008D</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
@@ -26404,7 +26405,7 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G675" t="inlineStr"/>
@@ -26413,22 +26414,22 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>Pc</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Lg</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>Elite desk 800</t>
+          <t>42LK450</t>
         </is>
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>MXL44520YJ</t>
+          <t>110N8XT1M258</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
@@ -26438,7 +26439,7 @@
       </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G676" t="inlineStr"/>
@@ -26447,22 +26448,22 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>Pc</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>Optiplex 3020</t>
+          <t>Lh40gwslbc</t>
         </is>
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>1DW1V52</t>
+          <t>Z621HCJC600029A</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
@@ -26472,7 +26473,7 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G677" t="inlineStr"/>
@@ -26481,22 +26482,22 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>Pc</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>Optiplex 3020</t>
+          <t>Lh40gwslbc/zb</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>1DD2V52</t>
+          <t>ZU41H1BA00173W</t>
         </is>
       </c>
       <c r="E678" t="inlineStr">
@@ -26506,7 +26507,7 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G678" t="inlineStr"/>
@@ -26515,22 +26516,22 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Pc</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>Optiplex 3080</t>
+          <t>Lh40gwslbc</t>
         </is>
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>96MDLM3</t>
+          <t>ZU41H1JBA0016W</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
@@ -26540,7 +26541,7 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G679" t="inlineStr"/>
@@ -26549,22 +26550,22 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>Pc</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>Optiplex 3080</t>
+          <t>Lh40gwslbc/zb</t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>D8MDLM3</t>
+          <t>ZU41H1JBA00039L</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
@@ -26574,7 +26575,7 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G680" t="inlineStr"/>
@@ -26583,22 +26584,22 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>Pc</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>Optiplex 3040</t>
+          <t>Lh40gwslbc/zb</t>
         </is>
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>G7JJJB2</t>
+          <t>Z621HCJC9000033M</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
@@ -26608,7 +26609,7 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G681" t="inlineStr"/>
@@ -26617,22 +26618,22 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>Pc</t>
+          <t>Pantalla</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>Precision 3620</t>
+          <t>Lh40gwslbc/zb</t>
         </is>
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>JV1YZLZ</t>
+          <t>Z621HCJC7000003F</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
@@ -26642,7 +26643,7 @@
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>Parking Rio</t>
         </is>
       </c>
       <c r="G682" t="inlineStr"/>
@@ -26661,12 +26662,12 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Optiplex 3050</t>
+          <t>Precision 3620</t>
         </is>
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>72601M2</t>
+          <t>2BM9BM2</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
@@ -26680,7 +26681,11 @@
         </is>
       </c>
       <c r="G683" t="inlineStr"/>
-      <c r="H683" t="inlineStr"/>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>Aviplan</t>
+        </is>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -26695,12 +26700,12 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Optiplex 3050</t>
+          <t>Optiplex 3060</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>986R0M2</t>
+          <t>J1N3DS2</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
@@ -26724,17 +26729,17 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>Optiplex 3050</t>
+          <t>Elite desk 800</t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>980R0M2</t>
+          <t>MXL44520YJ</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
@@ -26744,15 +26749,11 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>Sala Vip</t>
+          <t>CAU</t>
         </is>
       </c>
       <c r="G685" t="inlineStr"/>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>Sala Vip</t>
-        </is>
-      </c>
+      <c r="H685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -26767,12 +26768,12 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>Optiplex 3040</t>
+          <t>Optiplex 3020</t>
         </is>
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>G56HJB2</t>
+          <t>1DW1V52</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
@@ -26801,12 +26802,12 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>Optiplex 3040</t>
+          <t>Optiplex 3020</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>65QKJB2</t>
+          <t>1DD2V52</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
@@ -26835,12 +26836,12 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>Optiplex 3050</t>
+          <t>Optiplex 3080</t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>96ZQ0M2</t>
+          <t>96MDLM3</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
@@ -26869,30 +26870,26 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>Optiplex 3060</t>
+          <t>Optiplex 3080</t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>JT47DS2</t>
+          <t>D8MDLM3</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>San Fernando (SFO)</t>
+          <t>CAU</t>
         </is>
       </c>
       <c r="G689" t="inlineStr"/>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>Entregada en San Fernando.</t>
-        </is>
-      </c>
+      <c r="H689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -26907,12 +26904,12 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Optiplex 3020</t>
+          <t>Optiplex 3040</t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>1DK7V52</t>
+          <t>G7JJJB2</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
@@ -26941,12 +26938,12 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>Optiplex 3020</t>
+          <t>Precision 3620</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>1F0CV52</t>
+          <t>JV1YZLZ</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
@@ -26970,17 +26967,17 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>Elite desk 800</t>
+          <t>Optiplex 3050</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>MXL44521SS</t>
+          <t>72601M2</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
@@ -27004,17 +27001,17 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t xml:space="preserve">  compaq</t>
+          <t>Optiplex 3050</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>MXJ82305HK</t>
+          <t>986R0M2</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
@@ -27043,12 +27040,12 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>Optiplex 3020</t>
+          <t>Optiplex 3050</t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>1DR4V52</t>
+          <t>980R0M2</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
@@ -27058,11 +27055,15 @@
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>Sala Vip</t>
         </is>
       </c>
       <c r="G694" t="inlineStr"/>
-      <c r="H694" t="inlineStr"/>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>Sala Vip</t>
+        </is>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -27077,12 +27078,12 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>Optiplex 3020</t>
+          <t>Optiplex 3040</t>
         </is>
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>1F49V52</t>
+          <t>G56HJB2</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
@@ -27106,17 +27107,17 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Elite 8300</t>
+          <t>Optiplex 3040</t>
         </is>
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>MXL34519QQ</t>
+          <t>65QKJB2</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
@@ -27126,7 +27127,7 @@
       </c>
       <c r="F696" t="inlineStr">
         <is>
-          <t>COC</t>
+          <t>CAU</t>
         </is>
       </c>
       <c r="G696" t="inlineStr"/>
@@ -27140,35 +27141,31 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Cougar</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr"/>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Optiplex 3050</t>
+        </is>
+      </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>S/D</t>
+          <t>96ZQ0M2</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>Bariloche</t>
-        </is>
-      </c>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>Bariloche con placa de video</t>
-        </is>
-      </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>SE ENTREGA A AGUSTIN BAIONI</t>
-        </is>
-      </c>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr"/>
+      <c r="H697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -27178,33 +27175,33 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>Elite 8300</t>
+          <t>Optiplex 3060</t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>MXL3381WX4</t>
+          <t>JT47DS2</t>
         </is>
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F698" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>San Fernando (SFO)</t>
         </is>
       </c>
       <c r="G698" t="inlineStr"/>
       <c r="H698" t="inlineStr">
         <is>
-          <t>Ex COC</t>
+          <t>Entregada en San Fernando.</t>
         </is>
       </c>
     </row>
@@ -27226,24 +27223,20 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>1DX2V52</t>
+          <t>1DK7V52</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F699" t="inlineStr">
         <is>
-          <t>Control Terminal</t>
-        </is>
-      </c>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>Ex credenciales</t>
-        </is>
-      </c>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr"/>
       <c r="H699" t="inlineStr"/>
     </row>
     <row r="700">
@@ -27254,22 +27247,22 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>Compaq 6000</t>
+          <t>Optiplex 3020</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>BRG019FCLT</t>
+          <t>1F0CV52</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F700" t="inlineStr">
@@ -27277,16 +27270,8 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>Ex control terminal</t>
-        </is>
-      </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>Windows 7 y 4gb de RAM</t>
-        </is>
-      </c>
+      <c r="G700" t="inlineStr"/>
+      <c r="H700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -27296,17 +27281,17 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>Optiplex 3060</t>
+          <t>Elite desk 800</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>JT3YCS2</t>
+          <t>MXL44521SS</t>
         </is>
       </c>
       <c r="E701" t="inlineStr">
@@ -27320,54 +27305,46 @@
         </is>
       </c>
       <c r="G701" t="inlineStr"/>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>Estaba ubicada en Jefatura Parking</t>
-        </is>
-      </c>
+      <c r="H701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>Pc escritorio</t>
+          <t>Pc</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>Optiplex 3000</t>
+          <t xml:space="preserve">  compaq</t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>2TFD9R3</t>
+          <t>MXJ82305HK</t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F702" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
-        </is>
-      </c>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr"/>
       <c r="H702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>Pc escritorio</t>
+          <t>Pc</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -27377,35 +27354,31 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>Optiplex 3000</t>
+          <t>Optiplex 3020</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>1RFD9R3</t>
+          <t>1DR4V52</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F703" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
-        </is>
-      </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr"/>
       <c r="H703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Pc escritorio</t>
+          <t>Pc</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -27415,157 +27388,141 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>Optiplex 3000</t>
+          <t>Optiplex 3020</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>DKBD9R3</t>
+          <t>1F49V52</t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
-        </is>
-      </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>Se quita mouse.</t>
-        </is>
-      </c>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr"/>
+      <c r="H704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>Pc escritorio</t>
+          <t>Pc</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>Optiplex 3000</t>
+          <t>Elite 8300</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>4JBD9R3</t>
+          <t>MXL34519QQ</t>
         </is>
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F705" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
-        </is>
-      </c>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>Se quita mouse</t>
-        </is>
-      </c>
+          <t>COC</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr"/>
+      <c r="H705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>Pc escritorio</t>
+          <t>Pc</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Dell</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr">
-        <is>
-          <t>Optiplex 3000</t>
-        </is>
-      </c>
+          <t>Cougar</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr"/>
       <c r="D706" t="inlineStr">
         <is>
-          <t>HLBD9R3</t>
+          <t>S/D</t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F706" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>Bariloche</t>
         </is>
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="H706" t="inlineStr"/>
+          <t>Bariloche con placa de video</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>SE ENTREGA A AGUSTIN BAIONI</t>
+        </is>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>Pc escritorio</t>
+          <t>Pc</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>Optiplex 3000</t>
+          <t>Elite 8300</t>
         </is>
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>HKBD9R3</t>
+          <t>MXL3381WX4</t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F707" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
-        </is>
-      </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="H707" t="inlineStr"/>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr"/>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>Ex COC</t>
+        </is>
+      </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>Pc escritorio</t>
+          <t>Pc</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -27575,27 +27532,27 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>Optiplex 3000</t>
+          <t>Optiplex 3020</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>GMBD9R3</t>
+          <t>1DX2V52</t>
         </is>
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>Control Terminal</t>
         </is>
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Ex credenciales</t>
         </is>
       </c>
       <c r="H708" t="inlineStr"/>
@@ -27603,45 +27560,49 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Pc escritorio</t>
+          <t>Pc</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>Optiplex 3000</t>
+          <t>Compaq 6000</t>
         </is>
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>2SFD9R3</t>
+          <t>BRG019FCLT</t>
         </is>
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F709" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>CAU</t>
         </is>
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="H709" t="inlineStr"/>
+          <t>Ex control terminal</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>Windows 7 y 4gb de RAM</t>
+        </is>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>Pc escritorio</t>
+          <t>Pc</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -27651,30 +27612,30 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>Optiplex 3070</t>
+          <t>Optiplex 3060</t>
         </is>
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>HS57933</t>
+          <t>JT3YCS2</t>
         </is>
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F710" t="inlineStr">
         <is>
-          <t>Emb. nacional 8-9</t>
-        </is>
-      </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="H710" t="inlineStr"/>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr"/>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>Estaba ubicada en Jefatura Parking</t>
+        </is>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -27689,12 +27650,12 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>Optiplex 3070</t>
+          <t>Optiplex 3000</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>4S57933</t>
+          <t>2TFD9R3</t>
         </is>
       </c>
       <c r="E711" t="inlineStr">
@@ -27704,7 +27665,7 @@
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>Emb. nacional 8-9</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G711" t="inlineStr">
@@ -27727,12 +27688,12 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>Optiplex 3070</t>
+          <t>Optiplex 3000</t>
         </is>
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>3S57933</t>
+          <t>1RFD9R3</t>
         </is>
       </c>
       <c r="E712" t="inlineStr">
@@ -27742,7 +27703,7 @@
       </c>
       <c r="F712" t="inlineStr">
         <is>
-          <t>Emb. nacional 8-9</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G712" t="inlineStr">
@@ -27765,12 +27726,12 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>Optiplex 3070</t>
+          <t>Optiplex 3000</t>
         </is>
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>FR57933</t>
+          <t>DKBD9R3</t>
         </is>
       </c>
       <c r="E713" t="inlineStr">
@@ -27780,7 +27741,7 @@
       </c>
       <c r="F713" t="inlineStr">
         <is>
-          <t>Emb. nacional 8-9</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G713" t="inlineStr">
@@ -27788,7 +27749,11 @@
           <t>Ok</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr"/>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>Se quita mouse.</t>
+        </is>
+      </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
@@ -27803,12 +27768,12 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>Optiplex 3080</t>
+          <t>Optiplex 3000</t>
         </is>
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>DF5BLM3</t>
+          <t>4JBD9R3</t>
         </is>
       </c>
       <c r="E714" t="inlineStr">
@@ -27826,7 +27791,11 @@
           <t>Ok</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr"/>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>Se quita mouse</t>
+        </is>
+      </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
@@ -27841,12 +27810,12 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>Optiplex 3080</t>
+          <t>Optiplex 3000</t>
         </is>
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>13LBLM3</t>
+          <t>HLBD9R3</t>
         </is>
       </c>
       <c r="E715" t="inlineStr">
@@ -27879,12 +27848,12 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>Optiplex 3080</t>
+          <t>Optiplex 3000</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>61LBLM3</t>
+          <t>HKBD9R3</t>
         </is>
       </c>
       <c r="E716" t="inlineStr">
@@ -27902,11 +27871,7 @@
           <t>Ok</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>Se le saco mouse Gaston Falczuk.</t>
-        </is>
-      </c>
+      <c r="H716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
@@ -27921,12 +27886,12 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>Optiplex 3080</t>
+          <t>Optiplex 3000</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
         <is>
-          <t>51LBLM3</t>
+          <t>GMBD9R3</t>
         </is>
       </c>
       <c r="E717" t="inlineStr">
@@ -27959,12 +27924,12 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>Optiplex 3080</t>
+          <t>Optiplex 3000</t>
         </is>
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>98PBLM3</t>
+          <t>2SFD9R3</t>
         </is>
       </c>
       <c r="E718" t="inlineStr">
@@ -27997,12 +27962,12 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>Optiplex 3080</t>
+          <t>Optiplex 3070</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
         <is>
-          <t>D1LBLM3</t>
+          <t>HS57933</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
@@ -28012,7 +27977,7 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>Emb. nacional 8-9</t>
         </is>
       </c>
       <c r="G719" t="inlineStr">
@@ -28035,12 +28000,12 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>Optiplex 3080</t>
+          <t>Optiplex 3070</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>CFSBLM3</t>
+          <t>4S57933</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
@@ -28050,7 +28015,7 @@
       </c>
       <c r="F720" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>Emb. nacional 8-9</t>
         </is>
       </c>
       <c r="G720" t="inlineStr">
@@ -28073,12 +28038,12 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>Optiplex 3080</t>
+          <t>Optiplex 3070</t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>43LBLM3</t>
+          <t>3S57933</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
@@ -28088,7 +28053,7 @@
       </c>
       <c r="F721" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>Emb. nacional 8-9</t>
         </is>
       </c>
       <c r="G721" t="inlineStr">
@@ -28111,12 +28076,12 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>Optiplex 3080</t>
+          <t>Optiplex 3070</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>H1LBLM3</t>
+          <t>FR57933</t>
         </is>
       </c>
       <c r="E722" t="inlineStr">
@@ -28126,7 +28091,7 @@
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>Emb. nacional 8-9</t>
         </is>
       </c>
       <c r="G722" t="inlineStr">
@@ -28134,11 +28099,7 @@
           <t>Ok</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>Se le saca mouse para Sonia Gallardo.</t>
-        </is>
-      </c>
+      <c r="H722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
@@ -28158,7 +28119,7 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>41LBLM3</t>
+          <t>DF5BLM3</t>
         </is>
       </c>
       <c r="E723" t="inlineStr">
@@ -28196,7 +28157,7 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>D8PBLM3</t>
+          <t>13LBLM3</t>
         </is>
       </c>
       <c r="E724" t="inlineStr">
@@ -28234,7 +28195,7 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>32LBLM3</t>
+          <t>61LBLM3</t>
         </is>
       </c>
       <c r="E725" t="inlineStr">
@@ -28252,7 +28213,11 @@
           <t>Ok</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr"/>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>Se le saco mouse Gaston Falczuk.</t>
+        </is>
+      </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
@@ -28272,7 +28237,7 @@
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>GDSBLM3</t>
+          <t>51LBLM3</t>
         </is>
       </c>
       <c r="E726" t="inlineStr">
@@ -28310,7 +28275,7 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>G8PBLM3</t>
+          <t>98PBLM3</t>
         </is>
       </c>
       <c r="E727" t="inlineStr">
@@ -28328,11 +28293,7 @@
           <t>Ok</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>Se saca mouse para mantenimiento.</t>
-        </is>
-      </c>
+      <c r="H727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
@@ -28352,7 +28313,7 @@
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>9DSBLM3</t>
+          <t>D1LBLM3</t>
         </is>
       </c>
       <c r="E728" t="inlineStr">
@@ -28390,7 +28351,7 @@
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>GMWBLM3</t>
+          <t>CFSBLM3</t>
         </is>
       </c>
       <c r="E729" t="inlineStr">
@@ -28428,7 +28389,7 @@
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>21LBLM3</t>
+          <t>43LBLM3</t>
         </is>
       </c>
       <c r="E730" t="inlineStr">
@@ -28466,7 +28427,7 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>22LBLM3</t>
+          <t>H1LBLM3</t>
         </is>
       </c>
       <c r="E731" t="inlineStr">
@@ -28484,7 +28445,11 @@
           <t>Ok</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr"/>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>Se le saca mouse para Sonia Gallardo.</t>
+        </is>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
@@ -28504,7 +28469,7 @@
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>62LBLM3</t>
+          <t>41LBLM3</t>
         </is>
       </c>
       <c r="E732" t="inlineStr">
@@ -28514,19 +28479,15 @@
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t>San Fernando (SFO)</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G732" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se quita mouse para Nuc transferida a San Fernando (S/N: 83LBLM3). </t>
-        </is>
-      </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>Se lleva a SFO.</t>
-        </is>
-      </c>
+          <t>Ok</t>
+        </is>
+      </c>
+      <c r="H732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
@@ -28546,7 +28507,7 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>JMWBLM3</t>
+          <t>D8PBLM3</t>
         </is>
       </c>
       <c r="E733" t="inlineStr">
@@ -28584,7 +28545,7 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>GFSBLM3</t>
+          <t>32LBLM3</t>
         </is>
       </c>
       <c r="E734" t="inlineStr">
@@ -28622,7 +28583,7 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>72LBLM3</t>
+          <t>GDSBLM3</t>
         </is>
       </c>
       <c r="E735" t="inlineStr">
@@ -28660,7 +28621,7 @@
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>B3LBLM3</t>
+          <t>G8PBLM3</t>
         </is>
       </c>
       <c r="E736" t="inlineStr">
@@ -28678,7 +28639,11 @@
           <t>Ok</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr"/>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>Se saca mouse para mantenimiento.</t>
+        </is>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
@@ -28698,7 +28663,7 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>81LBLM3</t>
+          <t>9DSBLM3</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
@@ -28736,7 +28701,7 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>H2LBLM3</t>
+          <t>GMWBLM3</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
@@ -28774,7 +28739,7 @@
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>1CPBLM3</t>
+          <t>21LBLM3</t>
         </is>
       </c>
       <c r="E739" t="inlineStr">
@@ -28812,7 +28777,7 @@
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>BBPBLM3</t>
+          <t>22LBLM3</t>
         </is>
       </c>
       <c r="E740" t="inlineStr">
@@ -28850,7 +28815,7 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>4GSBLM3</t>
+          <t>62LBLM3</t>
         </is>
       </c>
       <c r="E741" t="inlineStr">
@@ -28860,15 +28825,19 @@
       </c>
       <c r="F741" t="inlineStr">
         <is>
-          <t>Deposito t4</t>
+          <t>San Fernando (SFO)</t>
         </is>
       </c>
       <c r="G741" t="inlineStr">
         <is>
-          <t>Ok</t>
-        </is>
-      </c>
-      <c r="H741" t="inlineStr"/>
+          <t xml:space="preserve">Se quita mouse para Nuc transferida a San Fernando (S/N: 83LBLM3). </t>
+        </is>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>Se lleva a SFO.</t>
+        </is>
+      </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
@@ -28888,7 +28857,7 @@
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>42LBLM3</t>
+          <t>JMWBLM3</t>
         </is>
       </c>
       <c r="E742" t="inlineStr">
@@ -28926,7 +28895,7 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>BGSBLM3</t>
+          <t>GFSBLM3</t>
         </is>
       </c>
       <c r="E743" t="inlineStr">
@@ -28954,22 +28923,22 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>Elitedesk 800 g1 sff</t>
+          <t>Optiplex 3080</t>
         </is>
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>MXL44521T5</t>
+          <t>72LBLM3</t>
         </is>
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F744" t="inlineStr">
@@ -28979,7 +28948,7 @@
       </c>
       <c r="G744" t="inlineStr">
         <is>
-          <t>Sin disco ni fuente</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H744" t="inlineStr"/>
@@ -28992,22 +28961,22 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>Compaq 6000 pro</t>
+          <t>Optiplex 3080</t>
         </is>
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>MXL1040V27</t>
+          <t>B3LBLM3</t>
         </is>
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F745" t="inlineStr">
@@ -29017,7 +28986,7 @@
       </c>
       <c r="G745" t="inlineStr">
         <is>
-          <t>Faltante ram</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H745" t="inlineStr"/>
@@ -29035,17 +29004,17 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>Optiplex 3020</t>
+          <t>Optiplex 3080</t>
         </is>
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>1DJ3V52</t>
+          <t>81LBLM3</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F746" t="inlineStr">
@@ -29055,7 +29024,7 @@
       </c>
       <c r="G746" t="inlineStr">
         <is>
-          <t>Gabinete vacio</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H746" t="inlineStr"/>
@@ -29068,22 +29037,22 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>Compaq 6200 pro</t>
+          <t>Optiplex 3080</t>
         </is>
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>MXL2030T3K</t>
+          <t>H2LBLM3</t>
         </is>
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F747" t="inlineStr">
@@ -29093,7 +29062,7 @@
       </c>
       <c r="G747" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sin disco </t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H747" t="inlineStr"/>
@@ -29111,17 +29080,17 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>Optiplex 3020</t>
+          <t>Optiplex 3080</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>1F44V52</t>
+          <t>1CPBLM3</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F748" t="inlineStr">
@@ -29131,7 +29100,7 @@
       </c>
       <c r="G748" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sin disco </t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H748" t="inlineStr"/>
@@ -29144,22 +29113,22 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>Compaq 6200 pro</t>
+          <t>Optiplex 3080</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>MXL20334T7</t>
+          <t>BBPBLM3</t>
         </is>
       </c>
       <c r="E749" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F749" t="inlineStr">
@@ -29169,7 +29138,7 @@
       </c>
       <c r="G749" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sin disco </t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H749" t="inlineStr"/>
@@ -29182,22 +29151,22 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>Compaq 6200 pro</t>
+          <t>Optiplex 3080</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>MXL2030T2W</t>
+          <t>4GSBLM3</t>
         </is>
       </c>
       <c r="E750" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F750" t="inlineStr">
@@ -29207,7 +29176,7 @@
       </c>
       <c r="G750" t="inlineStr">
         <is>
-          <t>Sin ram</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H750" t="inlineStr"/>
@@ -29220,22 +29189,22 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>Compaq elite</t>
+          <t>Optiplex 3080</t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>MXL3381WYR</t>
+          <t>42LBLM3</t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F751" t="inlineStr">
@@ -29245,7 +29214,7 @@
       </c>
       <c r="G751" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sin disco </t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H751" t="inlineStr"/>
@@ -29258,22 +29227,22 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>Compaq 6000 pro</t>
+          <t>Optiplex 3080</t>
         </is>
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>BRG019FCM1</t>
+          <t>BGSBLM3</t>
         </is>
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F752" t="inlineStr">
@@ -29283,7 +29252,7 @@
       </c>
       <c r="G752" t="inlineStr">
         <is>
-          <t>Sin ram</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H752" t="inlineStr"/>
@@ -29301,12 +29270,12 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>Compaq 6000 pro</t>
+          <t>Elitedesk 800 g1 sff</t>
         </is>
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>BRG019FCS7</t>
+          <t>MXL44521T5</t>
         </is>
       </c>
       <c r="E753" t="inlineStr">
@@ -29321,7 +29290,7 @@
       </c>
       <c r="G753" t="inlineStr">
         <is>
-          <t>Sin ram</t>
+          <t>Sin disco ni fuente</t>
         </is>
       </c>
       <c r="H753" t="inlineStr"/>
@@ -29339,12 +29308,12 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>Compaq dc5750</t>
+          <t>Compaq 6000 pro</t>
         </is>
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>MXJ80406G3</t>
+          <t>MXL1040V27</t>
         </is>
       </c>
       <c r="E754" t="inlineStr">
@@ -29359,7 +29328,7 @@
       </c>
       <c r="G754" t="inlineStr">
         <is>
-          <t>F/s</t>
+          <t>Faltante ram</t>
         </is>
       </c>
       <c r="H754" t="inlineStr"/>
@@ -29372,22 +29341,22 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>Compaq elite 8300</t>
+          <t>Optiplex 3020</t>
         </is>
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>MXL3381WWN</t>
+          <t>1DJ3V52</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F755" t="inlineStr">
@@ -29397,7 +29366,7 @@
       </c>
       <c r="G755" t="inlineStr">
         <is>
-          <t>Sin ram</t>
+          <t>Gabinete vacio</t>
         </is>
       </c>
       <c r="H755" t="inlineStr"/>
@@ -29415,12 +29384,12 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>Compaq 6000 pro</t>
+          <t>Compaq 6200 pro</t>
         </is>
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>BRG019FCKS</t>
+          <t>MXL2030T3K</t>
         </is>
       </c>
       <c r="E756" t="inlineStr">
@@ -29435,7 +29404,7 @@
       </c>
       <c r="G756" t="inlineStr">
         <is>
-          <t>Mother f/s, freeze en boot</t>
+          <t xml:space="preserve">Sin disco </t>
         </is>
       </c>
       <c r="H756" t="inlineStr"/>
@@ -29448,22 +29417,22 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>Compaq 6000 pro</t>
+          <t>Optiplex 3020</t>
         </is>
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>BRG019FCK7</t>
+          <t>1F44V52</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
         <is>
-          <t>Scrap</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F757" t="inlineStr">
@@ -29473,7 +29442,7 @@
       </c>
       <c r="G757" t="inlineStr">
         <is>
-          <t>Sin ram</t>
+          <t xml:space="preserve">Sin disco </t>
         </is>
       </c>
       <c r="H757" t="inlineStr"/>
@@ -29496,7 +29465,7 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>MXL2030T2N</t>
+          <t>MXL20334T7</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
@@ -29511,7 +29480,7 @@
       </c>
       <c r="G758" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t xml:space="preserve">Sin disco </t>
         </is>
       </c>
       <c r="H758" t="inlineStr"/>
@@ -29529,12 +29498,12 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>Compaq dc5750</t>
+          <t>Compaq 6200 pro</t>
         </is>
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>MXJ72304MD</t>
+          <t>MXL2030T2W</t>
         </is>
       </c>
       <c r="E759" t="inlineStr">
@@ -29549,7 +29518,7 @@
       </c>
       <c r="G759" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Sin ram</t>
         </is>
       </c>
       <c r="H759" t="inlineStr"/>
@@ -29562,22 +29531,22 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>Optiplex 3000</t>
+          <t>Compaq elite</t>
         </is>
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>FVFD9R3</t>
+          <t>MXL3381WYR</t>
         </is>
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F760" t="inlineStr">
@@ -29587,7 +29556,7 @@
       </c>
       <c r="G760" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t xml:space="preserve">Sin disco </t>
         </is>
       </c>
       <c r="H760" t="inlineStr"/>
@@ -29600,22 +29569,22 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>Optiplex 3080</t>
+          <t>Compaq 6000 pro</t>
         </is>
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>D9PBLM3</t>
+          <t>BRG019FCM1</t>
         </is>
       </c>
       <c r="E761" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F761" t="inlineStr">
@@ -29625,7 +29594,7 @@
       </c>
       <c r="G761" t="inlineStr">
         <is>
-          <t>Ok</t>
+          <t>Sin ram</t>
         </is>
       </c>
       <c r="H761" t="inlineStr"/>
@@ -29638,17 +29607,17 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>Optiplex 3020</t>
+          <t>Compaq 6000 pro</t>
         </is>
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>C7CS182</t>
+          <t>BRG019FCS7</t>
         </is>
       </c>
       <c r="E762" t="inlineStr">
@@ -29658,50 +29627,50 @@
       </c>
       <c r="F762" t="inlineStr">
         <is>
-          <t>CAU</t>
-        </is>
-      </c>
-      <c r="G762" t="inlineStr"/>
-      <c r="H762" t="inlineStr">
-        <is>
-          <t>Motherboard dañada</t>
-        </is>
-      </c>
+          <t>Deposito t4</t>
+        </is>
+      </c>
+      <c r="G762" t="inlineStr">
+        <is>
+          <t>Sin ram</t>
+        </is>
+      </c>
+      <c r="H762" t="inlineStr"/>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>Periferico</t>
+          <t>Pc escritorio</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>KB3121Wt</t>
+          <t>Compaq dc5750</t>
         </is>
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B18EA01</t>
+          <t>MXJ80406G3</t>
         </is>
       </c>
       <c r="E763" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t>6°to piso</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G763" t="inlineStr">
         <is>
-          <t>Adrian di chiacchio</t>
+          <t>F/s</t>
         </is>
       </c>
       <c r="H763" t="inlineStr"/>
@@ -29709,37 +29678,37 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Periferico</t>
+          <t>Pc escritorio</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t xml:space="preserve">Km5221w </t>
+          <t>Compaq elite 8300</t>
         </is>
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B18DA01</t>
+          <t>MXL3381WWN</t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G764" t="inlineStr">
         <is>
-          <t>En caja</t>
+          <t>Sin ram</t>
         </is>
       </c>
       <c r="H764" t="inlineStr"/>
@@ -29747,37 +29716,37 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>Periferico</t>
+          <t>Pc escritorio</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t xml:space="preserve">Km5221w </t>
+          <t>Compaq 6000 pro</t>
         </is>
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B18CA01</t>
+          <t>BRG019FCKS</t>
         </is>
       </c>
       <c r="E765" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G765" t="inlineStr">
         <is>
-          <t>En caja</t>
+          <t>Mother f/s, freeze en boot</t>
         </is>
       </c>
       <c r="H765" t="inlineStr"/>
@@ -29785,79 +29754,75 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>Periferico</t>
+          <t>Pc escritorio</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t xml:space="preserve">Km5221w </t>
+          <t>Compaq 6000 pro</t>
         </is>
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B18GA01</t>
+          <t>BRG019FCK7</t>
         </is>
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F766" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G766" t="inlineStr">
         <is>
-          <t>En caja</t>
-        </is>
-      </c>
-      <c r="H766" t="inlineStr">
-        <is>
-          <t>Entregado a SOZZI, Bianca</t>
-        </is>
-      </c>
+          <t>Sin ram</t>
+        </is>
+      </c>
+      <c r="H766" t="inlineStr"/>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>Periferico</t>
+          <t>Pc escritorio</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t xml:space="preserve">Km5221w </t>
+          <t>Compaq 6200 pro</t>
         </is>
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B18FA01</t>
+          <t>MXL2030T2N</t>
         </is>
       </c>
       <c r="E767" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F767" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G767" t="inlineStr">
         <is>
-          <t>En caja</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H767" t="inlineStr"/>
@@ -29865,37 +29830,37 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>Periferico</t>
+          <t>Pc escritorio</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Hp</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>KB3121Wt</t>
+          <t>Compaq dc5750</t>
         </is>
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B187A01</t>
+          <t>MXJ72304MD</t>
         </is>
       </c>
       <c r="E768" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F768" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G768" t="inlineStr">
         <is>
-          <t>En caja</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H768" t="inlineStr"/>
@@ -29903,7 +29868,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Periferico</t>
+          <t>Pc escritorio</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -29913,12 +29878,12 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>KB3121Wt</t>
+          <t>Optiplex 3000</t>
         </is>
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B188A01</t>
+          <t>FVFD9R3</t>
         </is>
       </c>
       <c r="E769" t="inlineStr">
@@ -29928,12 +29893,12 @@
       </c>
       <c r="F769" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G769" t="inlineStr">
         <is>
-          <t>En caja</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H769" t="inlineStr"/>
@@ -29941,7 +29906,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>Periferico</t>
+          <t>Pc escritorio</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -29951,12 +29916,12 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>KB3121Wt</t>
+          <t>Optiplex 3080</t>
         </is>
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B189A01</t>
+          <t>D9PBLM3</t>
         </is>
       </c>
       <c r="E770" t="inlineStr">
@@ -29966,12 +29931,12 @@
       </c>
       <c r="F770" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>Deposito t4</t>
         </is>
       </c>
       <c r="G770" t="inlineStr">
         <is>
-          <t>En caja</t>
+          <t>Ok</t>
         </is>
       </c>
       <c r="H770" t="inlineStr"/>
@@ -29979,7 +29944,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>Periferico</t>
+          <t>Pc escritorio</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -29989,30 +29954,30 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t xml:space="preserve">Km5221w </t>
+          <t>Optiplex 3020</t>
         </is>
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B18AA01</t>
+          <t>C7CS182</t>
         </is>
       </c>
       <c r="E771" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Scrap</t>
         </is>
       </c>
       <c r="F771" t="inlineStr">
         <is>
-          <t>T4</t>
-        </is>
-      </c>
-      <c r="G771" t="inlineStr">
-        <is>
-          <t>En caja</t>
-        </is>
-      </c>
-      <c r="H771" t="inlineStr"/>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G771" t="inlineStr"/>
+      <c r="H771" t="inlineStr">
+        <is>
+          <t>Motherboard dañada</t>
+        </is>
+      </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
@@ -30027,12 +29992,12 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t xml:space="preserve">Km5221w </t>
+          <t>KB3121Wt</t>
         </is>
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B18BA01</t>
+          <t>CN04T25DLO300192B18EA01</t>
         </is>
       </c>
       <c r="E772" t="inlineStr">
@@ -30042,12 +30007,12 @@
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>6°to piso</t>
         </is>
       </c>
       <c r="G772" t="inlineStr">
         <is>
-          <t>En caja</t>
+          <t>Adrian di chiacchio</t>
         </is>
       </c>
       <c r="H772" t="inlineStr"/>
@@ -30065,12 +30030,12 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>KB3121Wt</t>
+          <t xml:space="preserve">Km5221w </t>
         </is>
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B16BA01</t>
+          <t>CN04T25DLO300192B18DA01</t>
         </is>
       </c>
       <c r="E773" t="inlineStr">
@@ -30080,12 +30045,12 @@
       </c>
       <c r="F773" t="inlineStr">
         <is>
-          <t>6°to piso</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G773" t="inlineStr">
         <is>
-          <t>Pablo sabbadinni</t>
+          <t>En caja</t>
         </is>
       </c>
       <c r="H773" t="inlineStr"/>
@@ -30103,22 +30068,22 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>KB3121Wt</t>
+          <t xml:space="preserve">Km5221w </t>
         </is>
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B169A01</t>
+          <t>CN04T25DLO300192B18CA01</t>
         </is>
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F774" t="inlineStr">
         <is>
-          <t>CCO</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G774" t="inlineStr">
@@ -30126,11 +30091,7 @@
           <t>En caja</t>
         </is>
       </c>
-      <c r="H774" t="inlineStr">
-        <is>
-          <t>Se entrega a DRAGUI, Emanuel.</t>
-        </is>
-      </c>
+      <c r="H774" t="inlineStr"/>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
@@ -30145,26 +30106,34 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>KB3121Wt</t>
+          <t xml:space="preserve">Km5221w </t>
         </is>
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B178A01</t>
+          <t>CN04T25DLO300192B18GA01</t>
         </is>
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F775" t="inlineStr">
         <is>
-          <t>T4</t>
-        </is>
-      </c>
-      <c r="G775" t="inlineStr"/>
-      <c r="H775" t="inlineStr"/>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="G775" t="inlineStr">
+        <is>
+          <t>En caja</t>
+        </is>
+      </c>
+      <c r="H775" t="inlineStr">
+        <is>
+          <t>Entregado a SOZZI, Bianca</t>
+        </is>
+      </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
@@ -30179,17 +30148,17 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>KB3121Wt</t>
+          <t xml:space="preserve">Km5221w </t>
         </is>
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B179A01</t>
+          <t>CN04T25DLO300192B18FA01</t>
         </is>
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F776" t="inlineStr">
@@ -30197,7 +30166,11 @@
           <t>T4</t>
         </is>
       </c>
-      <c r="G776" t="inlineStr"/>
+      <c r="G776" t="inlineStr">
+        <is>
+          <t>En caja</t>
+        </is>
+      </c>
       <c r="H776" t="inlineStr"/>
     </row>
     <row r="777">
@@ -30218,12 +30191,12 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B17AA01</t>
+          <t>CN04T25DLO300192B187A01</t>
         </is>
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F777" t="inlineStr">
@@ -30231,7 +30204,11 @@
           <t>T4</t>
         </is>
       </c>
-      <c r="G777" t="inlineStr"/>
+      <c r="G777" t="inlineStr">
+        <is>
+          <t>En caja</t>
+        </is>
+      </c>
       <c r="H777" t="inlineStr"/>
     </row>
     <row r="778">
@@ -30252,12 +30229,12 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B17CA01</t>
+          <t>CN04T25DLO300192B188A01</t>
         </is>
       </c>
       <c r="E778" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F778" t="inlineStr">
@@ -30265,7 +30242,11 @@
           <t>T4</t>
         </is>
       </c>
-      <c r="G778" t="inlineStr"/>
+      <c r="G778" t="inlineStr">
+        <is>
+          <t>En caja</t>
+        </is>
+      </c>
       <c r="H778" t="inlineStr"/>
     </row>
     <row r="779">
@@ -30286,12 +30267,12 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B17BA01</t>
+          <t>CN04T25DLO300192B189A01</t>
         </is>
       </c>
       <c r="E779" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F779" t="inlineStr">
@@ -30299,7 +30280,11 @@
           <t>T4</t>
         </is>
       </c>
-      <c r="G779" t="inlineStr"/>
+      <c r="G779" t="inlineStr">
+        <is>
+          <t>En caja</t>
+        </is>
+      </c>
       <c r="H779" t="inlineStr"/>
     </row>
     <row r="780">
@@ -30315,17 +30300,17 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>KB3121Wt</t>
+          <t xml:space="preserve">Km5221w </t>
         </is>
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B173A01</t>
+          <t>CN04T25DLO300192B18AA01</t>
         </is>
       </c>
       <c r="E780" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F780" t="inlineStr">
@@ -30333,7 +30318,11 @@
           <t>T4</t>
         </is>
       </c>
-      <c r="G780" t="inlineStr"/>
+      <c r="G780" t="inlineStr">
+        <is>
+          <t>En caja</t>
+        </is>
+      </c>
       <c r="H780" t="inlineStr"/>
     </row>
     <row r="781">
@@ -30349,17 +30338,17 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>KB3121Wt</t>
+          <t xml:space="preserve">Km5221w </t>
         </is>
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B174A01</t>
+          <t>CN04T25DLO300192B18BA01</t>
         </is>
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F781" t="inlineStr">
@@ -30367,7 +30356,11 @@
           <t>T4</t>
         </is>
       </c>
-      <c r="G781" t="inlineStr"/>
+      <c r="G781" t="inlineStr">
+        <is>
+          <t>En caja</t>
+        </is>
+      </c>
       <c r="H781" t="inlineStr"/>
     </row>
     <row r="782">
@@ -30388,20 +30381,24 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B175A01</t>
+          <t>CN04T25DLO300192B16BA01</t>
         </is>
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F782" t="inlineStr">
         <is>
-          <t>T4</t>
-        </is>
-      </c>
-      <c r="G782" t="inlineStr"/>
+          <t>6°to piso</t>
+        </is>
+      </c>
+      <c r="G782" t="inlineStr">
+        <is>
+          <t>Pablo sabbadinni</t>
+        </is>
+      </c>
       <c r="H782" t="inlineStr"/>
     </row>
     <row r="783">
@@ -30422,21 +30419,29 @@
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B176A01</t>
+          <t>CN04T25DLO300192B169A01</t>
         </is>
       </c>
       <c r="E783" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>En uso</t>
         </is>
       </c>
       <c r="F783" t="inlineStr">
         <is>
-          <t>T4</t>
-        </is>
-      </c>
-      <c r="G783" t="inlineStr"/>
-      <c r="H783" t="inlineStr"/>
+          <t>CCO</t>
+        </is>
+      </c>
+      <c r="G783" t="inlineStr">
+        <is>
+          <t>En caja</t>
+        </is>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>Se entrega a DRAGUI, Emanuel.</t>
+        </is>
+      </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
@@ -30456,7 +30461,7 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>CN04T25DLO300192B177A01</t>
+          <t>CN04T25DLO300192B178A01</t>
         </is>
       </c>
       <c r="E784" t="inlineStr">
@@ -30475,7 +30480,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>Teclado</t>
+          <t>Periferico</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -30485,12 +30490,12 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>Inalambrico</t>
+          <t>KB3121Wt</t>
         </is>
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>S/D</t>
+          <t>CN04T25DLO300192B179A01</t>
         </is>
       </c>
       <c r="E785" t="inlineStr">
@@ -30500,20 +30505,16 @@
       </c>
       <c r="F785" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G785" t="inlineStr"/>
-      <c r="H785" t="inlineStr">
-        <is>
-          <t>En caja</t>
-        </is>
-      </c>
+      <c r="H785" t="inlineStr"/>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>Teclado</t>
+          <t>Periferico</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -30523,12 +30524,12 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>Inalambrico</t>
+          <t>KB3121Wt</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t>S/D</t>
+          <t>CN04T25DLO300192B17AA01</t>
         </is>
       </c>
       <c r="E786" t="inlineStr">
@@ -30538,20 +30539,16 @@
       </c>
       <c r="F786" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G786" t="inlineStr"/>
-      <c r="H786" t="inlineStr">
-        <is>
-          <t>En caja</t>
-        </is>
-      </c>
+      <c r="H786" t="inlineStr"/>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>Teclado</t>
+          <t>Periferico</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -30561,12 +30558,12 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>Inalambrico</t>
+          <t>KB3121Wt</t>
         </is>
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>S/D</t>
+          <t>CN04T25DLO300192B17CA01</t>
         </is>
       </c>
       <c r="E787" t="inlineStr">
@@ -30576,20 +30573,16 @@
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G787" t="inlineStr"/>
-      <c r="H787" t="inlineStr">
-        <is>
-          <t>Sin USB</t>
-        </is>
-      </c>
+      <c r="H787" t="inlineStr"/>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>Teclado</t>
+          <t>Periferico</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -30599,12 +30592,12 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>Inalambrico</t>
+          <t>KB3121Wt</t>
         </is>
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>S/D</t>
+          <t>CN04T25DLO300192B17BA01</t>
         </is>
       </c>
       <c r="E788" t="inlineStr">
@@ -30614,20 +30607,16 @@
       </c>
       <c r="F788" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G788" t="inlineStr"/>
-      <c r="H788" t="inlineStr">
-        <is>
-          <t>Sin usb</t>
-        </is>
-      </c>
+      <c r="H788" t="inlineStr"/>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Teclado</t>
+          <t>Periferico</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -30637,12 +30626,12 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>Inalambrico</t>
+          <t>KB3121Wt</t>
         </is>
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t>S/D</t>
+          <t>CN04T25DLO300192B173A01</t>
         </is>
       </c>
       <c r="E789" t="inlineStr">
@@ -30652,20 +30641,16 @@
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G789" t="inlineStr"/>
-      <c r="H789" t="inlineStr">
-        <is>
-          <t>Sin USB</t>
-        </is>
-      </c>
+      <c r="H789" t="inlineStr"/>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>Teclado</t>
+          <t>Periferico</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -30675,12 +30660,12 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>Inalambrico</t>
+          <t>KB3121Wt</t>
         </is>
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t>S/D</t>
+          <t>CN04T25DLO300192B174A01</t>
         </is>
       </c>
       <c r="E790" t="inlineStr">
@@ -30690,20 +30675,16 @@
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G790" t="inlineStr"/>
-      <c r="H790" t="inlineStr">
-        <is>
-          <t>Sin usb</t>
-        </is>
-      </c>
+      <c r="H790" t="inlineStr"/>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>Teclado</t>
+          <t>Periferico</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -30713,12 +30694,12 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>Inalambrico</t>
+          <t>KB3121Wt</t>
         </is>
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>S/D</t>
+          <t>CN04T25DLO300192B175A01</t>
         </is>
       </c>
       <c r="E791" t="inlineStr">
@@ -30728,35 +30709,31 @@
       </c>
       <c r="F791" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G791" t="inlineStr"/>
-      <c r="H791" t="inlineStr">
-        <is>
-          <t>Sin USB</t>
-        </is>
-      </c>
+      <c r="H791" t="inlineStr"/>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>Teclado</t>
+          <t>Periferico</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>Logitech</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>Inalambrico</t>
+          <t>KB3121Wt</t>
         </is>
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>S/D</t>
+          <t>CN04T25DLO300192B176A01</t>
         </is>
       </c>
       <c r="E792" t="inlineStr">
@@ -30766,20 +30743,16 @@
       </c>
       <c r="F792" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G792" t="inlineStr"/>
-      <c r="H792" t="inlineStr">
-        <is>
-          <t>Sin USB</t>
-        </is>
-      </c>
+      <c r="H792" t="inlineStr"/>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>Teclado</t>
+          <t>Periferico</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -30789,12 +30762,12 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>KB3121Wt</t>
         </is>
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>S/D</t>
+          <t>CN04T25DLO300192B177A01</t>
         </is>
       </c>
       <c r="E793" t="inlineStr">
@@ -30804,15 +30777,11 @@
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t>CAU</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="G793" t="inlineStr"/>
-      <c r="H793" t="inlineStr">
-        <is>
-          <t>En caja</t>
-        </is>
-      </c>
+      <c r="H793" t="inlineStr"/>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
@@ -30827,7 +30796,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Inalambrico</t>
         </is>
       </c>
       <c r="D794" t="inlineStr">
@@ -30837,7 +30806,7 @@
       </c>
       <c r="E794" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F794" t="inlineStr">
@@ -30865,7 +30834,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Inalambrico</t>
         </is>
       </c>
       <c r="D795" t="inlineStr">
@@ -30875,7 +30844,7 @@
       </c>
       <c r="E795" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F795" t="inlineStr">
@@ -30903,7 +30872,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Inalambrico</t>
         </is>
       </c>
       <c r="D796" t="inlineStr">
@@ -30913,7 +30882,7 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F796" t="inlineStr">
@@ -30924,7 +30893,7 @@
       <c r="G796" t="inlineStr"/>
       <c r="H796" t="inlineStr">
         <is>
-          <t>En caja</t>
+          <t>Sin USB</t>
         </is>
       </c>
     </row>
@@ -30941,7 +30910,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Inalambrico</t>
         </is>
       </c>
       <c r="D797" t="inlineStr">
@@ -30951,7 +30920,7 @@
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F797" t="inlineStr">
@@ -30962,7 +30931,7 @@
       <c r="G797" t="inlineStr"/>
       <c r="H797" t="inlineStr">
         <is>
-          <t>En caja</t>
+          <t>Sin usb</t>
         </is>
       </c>
     </row>
@@ -30979,7 +30948,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Inalambrico</t>
         </is>
       </c>
       <c r="D798" t="inlineStr">
@@ -30989,7 +30958,7 @@
       </c>
       <c r="E798" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F798" t="inlineStr">
@@ -31000,7 +30969,7 @@
       <c r="G798" t="inlineStr"/>
       <c r="H798" t="inlineStr">
         <is>
-          <t>En caja</t>
+          <t>Sin USB</t>
         </is>
       </c>
     </row>
@@ -31017,7 +30986,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Inalambrico</t>
         </is>
       </c>
       <c r="D799" t="inlineStr">
@@ -31027,7 +30996,7 @@
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F799" t="inlineStr">
@@ -31038,7 +31007,7 @@
       <c r="G799" t="inlineStr"/>
       <c r="H799" t="inlineStr">
         <is>
-          <t>En caja</t>
+          <t>Sin usb</t>
         </is>
       </c>
     </row>
@@ -31055,7 +31024,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Inalambrico</t>
         </is>
       </c>
       <c r="D800" t="inlineStr">
@@ -31065,7 +31034,7 @@
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F800" t="inlineStr">
@@ -31076,7 +31045,7 @@
       <c r="G800" t="inlineStr"/>
       <c r="H800" t="inlineStr">
         <is>
-          <t>En caja</t>
+          <t>Sin USB</t>
         </is>
       </c>
     </row>
@@ -31088,12 +31057,12 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Logitech</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>Cable</t>
+          <t>Inalambrico</t>
         </is>
       </c>
       <c r="D801" t="inlineStr">
@@ -31103,7 +31072,7 @@
       </c>
       <c r="E801" t="inlineStr">
         <is>
-          <t>Nuevo</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F801" t="inlineStr">
@@ -31114,7 +31083,7 @@
       <c r="G801" t="inlineStr"/>
       <c r="H801" t="inlineStr">
         <is>
-          <t>En caja</t>
+          <t>Sin USB</t>
         </is>
       </c>
     </row>
@@ -31136,21 +31105,25 @@
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t>CN-0F2J-V2LO300-787-02T6-A03</t>
+          <t>S/D</t>
         </is>
       </c>
       <c r="E802" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Activo</t>
         </is>
       </c>
       <c r="F802" t="inlineStr">
         <is>
-          <t>Control terminal</t>
+          <t>CAU</t>
         </is>
       </c>
       <c r="G802" t="inlineStr"/>
-      <c r="H802" t="inlineStr"/>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>En caja</t>
+        </is>
+      </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
@@ -31175,7 +31148,7 @@
       </c>
       <c r="E803" t="inlineStr">
         <is>
-          <t>Activo</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F803" t="inlineStr">
@@ -31183,14 +31156,10 @@
           <t>CAU</t>
         </is>
       </c>
-      <c r="G803" t="inlineStr">
-        <is>
-          <t>Flecha hacia arriba rota</t>
-        </is>
-      </c>
+      <c r="G803" t="inlineStr"/>
       <c r="H803" t="inlineStr">
         <is>
-          <t>Ex Lopez</t>
+          <t>En caja</t>
         </is>
       </c>
     </row>
@@ -31212,25 +31181,25 @@
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t>18Q-0GSK-A04</t>
+          <t>S/D</t>
         </is>
       </c>
       <c r="E804" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F804" t="inlineStr">
         <is>
-          <t>Sala VIP</t>
-        </is>
-      </c>
-      <c r="G804" t="inlineStr">
-        <is>
-          <t>Sala vip</t>
-        </is>
-      </c>
-      <c r="H804" t="inlineStr"/>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G804" t="inlineStr"/>
+      <c r="H804" t="inlineStr">
+        <is>
+          <t>En caja</t>
+        </is>
+      </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
@@ -31245,30 +31214,30 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>Wk717</t>
+          <t>Cable</t>
         </is>
       </c>
       <c r="D805" t="inlineStr">
         <is>
-          <t>CN-0GKV4F-LO300-98G-K0CF-A06</t>
+          <t>S/D</t>
         </is>
       </c>
       <c r="E805" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t>Mantenimiento</t>
-        </is>
-      </c>
-      <c r="G805" t="inlineStr">
-        <is>
-          <t>Mantenimiento</t>
-        </is>
-      </c>
-      <c r="H805" t="inlineStr"/>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G805" t="inlineStr"/>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>En caja</t>
+        </is>
+      </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
@@ -31288,27 +31257,23 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>CN-0F2JV2-LO300-7B8-05R7-A03</t>
+          <t>S/D</t>
         </is>
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t>Parking Sur</t>
-        </is>
-      </c>
-      <c r="G806" t="inlineStr">
-        <is>
-          <t>Parking sur</t>
-        </is>
-      </c>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G806" t="inlineStr"/>
       <c r="H806" t="inlineStr">
         <is>
-          <t>Gabriela Jara</t>
+          <t>En caja</t>
         </is>
       </c>
     </row>
@@ -31330,25 +31295,25 @@
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t>CN-0F2JV2-LO300-7A5-00TE-A03</t>
+          <t>S/D</t>
         </is>
       </c>
       <c r="E807" t="inlineStr">
         <is>
-          <t>En uso</t>
+          <t>Nuevo</t>
         </is>
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t>Operaciones</t>
-        </is>
-      </c>
-      <c r="G807" t="inlineStr">
-        <is>
-          <t>Reyna ricardo</t>
-        </is>
-      </c>
-      <c r="H807" t="inlineStr"/>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G807" t="inlineStr"/>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>En caja</t>
+        </is>
+      </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
@@ -31368,25 +31333,371 @@
       </c>
       <c r="D808" t="inlineStr">
         <is>
+          <t>S/D</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>Nuevo</t>
+        </is>
+      </c>
+      <c r="F808" t="inlineStr">
+        <is>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G808" t="inlineStr"/>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>En caja</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>Teclado</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>Cable</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>S/D</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>Nuevo</t>
+        </is>
+      </c>
+      <c r="F809" t="inlineStr">
+        <is>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G809" t="inlineStr"/>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>En caja</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>Teclado</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>Cable</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>S/D</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>Nuevo</t>
+        </is>
+      </c>
+      <c r="F810" t="inlineStr">
+        <is>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G810" t="inlineStr"/>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>En caja</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>Teclado</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>Cable</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>CN-0F2J-V2LO300-787-02T6-A03</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>En uso</t>
+        </is>
+      </c>
+      <c r="F811" t="inlineStr">
+        <is>
+          <t>Control terminal</t>
+        </is>
+      </c>
+      <c r="G811" t="inlineStr"/>
+      <c r="H811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>Teclado</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>Cable</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>S/D</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>Activo</t>
+        </is>
+      </c>
+      <c r="F812" t="inlineStr">
+        <is>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="G812" t="inlineStr">
+        <is>
+          <t>Flecha hacia arriba rota</t>
+        </is>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>Ex Lopez</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>Teclado</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>Cable</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>18Q-0GSK-A04</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>En uso</t>
+        </is>
+      </c>
+      <c r="F813" t="inlineStr">
+        <is>
+          <t>Sala VIP</t>
+        </is>
+      </c>
+      <c r="G813" t="inlineStr">
+        <is>
+          <t>Sala vip</t>
+        </is>
+      </c>
+      <c r="H813" t="inlineStr"/>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>Teclado</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>Wk717</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>CN-0GKV4F-LO300-98G-K0CF-A06</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>En uso</t>
+        </is>
+      </c>
+      <c r="F814" t="inlineStr">
+        <is>
+          <t>Mantenimiento</t>
+        </is>
+      </c>
+      <c r="G814" t="inlineStr">
+        <is>
+          <t>Mantenimiento</t>
+        </is>
+      </c>
+      <c r="H814" t="inlineStr"/>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>Teclado</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>Cable</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>CN-0F2JV2-LO300-7B8-05R7-A03</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>En uso</t>
+        </is>
+      </c>
+      <c r="F815" t="inlineStr">
+        <is>
+          <t>Parking Sur</t>
+        </is>
+      </c>
+      <c r="G815" t="inlineStr">
+        <is>
+          <t>Parking sur</t>
+        </is>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>Gabriela Jara</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>Teclado</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>Cable</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>CN-0F2JV2-LO300-7A5-00TE-A03</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>En uso</t>
+        </is>
+      </c>
+      <c r="F816" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="G816" t="inlineStr">
+        <is>
+          <t>Reyna ricardo</t>
+        </is>
+      </c>
+      <c r="H816" t="inlineStr"/>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>Teclado</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>Cable</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
           <t>CN-0F2JV2-L0300-08Q-0004V</t>
         </is>
       </c>
-      <c r="E808" t="inlineStr">
+      <c r="E817" t="inlineStr">
         <is>
           <t>Nuevo</t>
         </is>
       </c>
-      <c r="F808" t="inlineStr">
+      <c r="F817" t="inlineStr">
         <is>
           <t>San Fernando (SFO)</t>
         </is>
       </c>
-      <c r="G808" t="inlineStr">
+      <c r="G817" t="inlineStr">
         <is>
           <t xml:space="preserve">Se envio a san fernando </t>
         </is>
       </c>
-      <c r="H808" t="inlineStr">
+      <c r="H817" t="inlineStr">
         <is>
           <t>TAG: JMWBLM3</t>
         </is>
